--- a/Anthony/CS470.skel/hw3/Problem5e.xlsx
+++ b/Anthony/CS470.skel/hw3/Problem5e.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anthony/Desktop/classes/image processing/Image-Processing-Projects/Anthony/CS470.skel/hw3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67765602-5824-F24F-A0F5-C7E035BE20ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E299EA03-5C14-3345-B067-2545E899B7B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" xr2:uid="{4F80F04C-4F81-5041-BA51-FAC36755D108}"/>
   </bookViews>
@@ -956,772 +956,772 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="256"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>6.25E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>6.2100675197617618E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>6.0912349002480604E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>5.8960945896415193E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.5</c:v>
+                  <c:v>0.55623185747402137</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>5.2966680026220257E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>4.9057930103093429E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>4.4653641307288702E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>3.9852876395562717E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>3.4758765369328072E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>2.9481731309405831E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>2.413356376501407E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>1.8824725363202514E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>1.3661443701161308E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>8.7437549142230647E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>4.1633271550527958E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>3.6797614053087732E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>6.8228054347167187E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>9.392121379113454E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>1.1367645886462158E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>1.2743854715116616E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>1.3531170015929886E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>1.3755256522508041E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>1.3456372653876674E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>1.2685314737916438E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>1.1504723247431899E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>9.9840865881661908E-3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>8.199209961941456E-3</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>6.2282536878325691E-3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>4.1533901815264118E-3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>2.052676301806985E-3</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>1.9344063688894327E-3</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>3.6885510705424699E-3</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>5.2112900514172111E-3</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0</c:v>
+                  <c:v>6.4602046407215303E-3</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0</c:v>
+                  <c:v>7.4053041125938914E-3</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0</c:v>
+                  <c:v>8.0270655285726925E-3</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0</c:v>
+                  <c:v>8.3186547590340595E-3</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>8.2863562559185207E-3</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0</c:v>
+                  <c:v>7.9455699606762013E-3</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0</c:v>
+                  <c:v>7.3221937969436459E-3</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0</c:v>
+                  <c:v>6.4504133976048391E-3</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0</c:v>
+                  <c:v>5.3723652146889641E-3</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0</c:v>
+                  <c:v>4.1368326047835201E-3</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0</c:v>
+                  <c:v>2.7945207102471076E-3</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0</c:v>
+                  <c:v>1.3970987796143835E-3</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0</c:v>
+                  <c:v>1.3472063687497917E-3</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0</c:v>
+                  <c:v>2.5965658089099146E-3</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0</c:v>
+                  <c:v>3.70498434544601E-3</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0</c:v>
+                  <c:v>4.6364663268484976E-3</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0</c:v>
+                  <c:v>5.3641276084746533E-3</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0</c:v>
+                  <c:v>5.8656847000158469E-3</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0</c:v>
+                  <c:v>6.131225815446696E-3</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0</c:v>
+                  <c:v>6.1574699349651726E-3</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0</c:v>
+                  <c:v>5.9503252011969899E-3</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0</c:v>
+                  <c:v>5.5254626050675612E-3</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0</c:v>
+                  <c:v>4.9031044247496913E-3</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0</c:v>
+                  <c:v>4.1132648832770298E-3</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0</c:v>
+                  <c:v>3.1883845439344355E-3</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0</c:v>
+                  <c:v>2.1679310413387234E-3</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0</c:v>
+                  <c:v>1.0911484775226513E-3</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0</c:v>
+                  <c:v>1.064978873029883E-3</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0</c:v>
+                  <c:v>2.0639656004885353E-3</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0</c:v>
+                  <c:v>2.9619513838008886E-3</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0</c:v>
+                  <c:v>3.7274190802752513E-3</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0</c:v>
+                  <c:v>4.3356531226563773E-3</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0</c:v>
+                  <c:v>4.7660937884183522E-3</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0</c:v>
+                  <c:v>5.0070687033433045E-3</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0</c:v>
+                  <c:v>5.0532437107268045E-3</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0</c:v>
+                  <c:v>4.9068235142503344E-3</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0</c:v>
+                  <c:v>4.5776344327610958E-3</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0</c:v>
+                  <c:v>4.0810960537581075E-3</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0</c:v>
+                  <c:v>3.4390471063944442E-3</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0</c:v>
+                  <c:v>2.6778089924413954E-3</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0</c:v>
+                  <c:v>1.8286153231338732E-3</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0</c:v>
+                  <c:v>9.2421480187237853E-4</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0</c:v>
+                  <c:v>9.092084469471233E-4</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0</c:v>
+                  <c:v>1.769698844436533E-3</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0</c:v>
+                  <c:v>2.5488171766527312E-3</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0</c:v>
+                  <c:v>3.2204005961991747E-3</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0</c:v>
+                  <c:v>3.759381997084095E-3</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0</c:v>
+                  <c:v>4.1476278762685543E-3</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0</c:v>
+                  <c:v>4.3731501231949492E-3</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0</c:v>
+                  <c:v>4.4290608485321129E-3</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0</c:v>
+                  <c:v>4.3160983538376415E-3</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0</c:v>
+                  <c:v>4.0405903034086491E-3</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0</c:v>
+                  <c:v>3.6141014097559577E-3</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0</c:v>
+                  <c:v>3.0552053940774587E-3</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0</c:v>
+                  <c:v>2.3868255068186278E-3</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0</c:v>
+                  <c:v>1.635418600848113E-3</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0</c:v>
+                  <c:v>8.2920021707667195E-4</c:v>
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0</c:v>
+                  <c:v>8.2077341574882882E-4</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0</c:v>
+                  <c:v>1.6024836972649676E-3</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0</c:v>
+                  <c:v>2.3151995594332684E-3</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0</c:v>
+                  <c:v>2.933391893354858E-3</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0</c:v>
+                  <c:v>3.4347042085163607E-3</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0</c:v>
+                  <c:v>3.8007558458811848E-3</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0</c:v>
+                  <c:v>4.0187506765162733E-3</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0</c:v>
+                  <c:v>4.0817962957501938E-3</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0</c:v>
+                  <c:v>3.9888446948960045E-3</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0</c:v>
+                  <c:v>3.7447138742499404E-3</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0</c:v>
+                  <c:v>3.3589045833426114E-3</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0</c:v>
+                  <c:v>2.8473686097869378E-3</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0</c:v>
+                  <c:v>2.2302746467643846E-3</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0</c:v>
+                  <c:v>1.5322927266028512E-3</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0</c:v>
+                  <c:v>7.7882282966025074E-4</c:v>
                 </c:pt>
                 <c:pt idx="112">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0</c:v>
+                  <c:v>7.7511805552444712E-4</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0</c:v>
+                  <c:v>1.5172692575808687E-3</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0</c:v>
+                  <c:v>2.1978855748195809E-3</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0</c:v>
+                  <c:v>2.7922650304009469E-3</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0</c:v>
+                  <c:v>3.2778018549021537E-3</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0</c:v>
+                  <c:v>3.6363313930388688E-3</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0</c:v>
+                  <c:v>3.8545020430660044E-3</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0</c:v>
+                  <c:v>3.9249281522086496E-3</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0</c:v>
+                  <c:v>3.845186731486522E-3</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0</c:v>
+                  <c:v>3.6187894384724847E-3</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0</c:v>
+                  <c:v>3.2541518096118379E-3</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0</c:v>
+                  <c:v>2.7653462712651376E-3</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>0</c:v>
+                  <c:v>2.1714741536569115E-3</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0</c:v>
+                  <c:v>1.4954577894410795E-3</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0</c:v>
+                  <c:v>7.6205314775283227E-4</c:v>
                 </c:pt>
                 <c:pt idx="128">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0</c:v>
+                  <c:v>7.6205314775283227E-4</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0</c:v>
+                  <c:v>1.4954577894410795E-3</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>0</c:v>
+                  <c:v>2.1714741536569115E-3</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>0</c:v>
+                  <c:v>2.7653462712651376E-3</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>0</c:v>
+                  <c:v>3.2541518096118379E-3</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>0</c:v>
+                  <c:v>3.6187894384724847E-3</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>0</c:v>
+                  <c:v>3.845186731486522E-3</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>0</c:v>
+                  <c:v>3.9249281522086496E-3</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>0</c:v>
+                  <c:v>3.8545020430660044E-3</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>0</c:v>
+                  <c:v>3.6363313930388688E-3</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>0</c:v>
+                  <c:v>3.2778018549021537E-3</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>0</c:v>
+                  <c:v>2.7922650304009469E-3</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>0</c:v>
+                  <c:v>2.1978855748195809E-3</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>0</c:v>
+                  <c:v>1.5172692575808687E-3</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>0</c:v>
+                  <c:v>7.7511805552444712E-4</c:v>
                 </c:pt>
                 <c:pt idx="144">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>0</c:v>
+                  <c:v>7.7882282966025074E-4</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0</c:v>
+                  <c:v>1.5322927266028512E-3</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>0</c:v>
+                  <c:v>2.2302746467643846E-3</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>0</c:v>
+                  <c:v>2.8473686097869378E-3</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>0</c:v>
+                  <c:v>3.3589045833426114E-3</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>0</c:v>
+                  <c:v>3.7447138742499404E-3</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>0</c:v>
+                  <c:v>3.9888446948960045E-3</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>0</c:v>
+                  <c:v>4.0817962957501938E-3</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>0</c:v>
+                  <c:v>4.0187506765162733E-3</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>0</c:v>
+                  <c:v>3.8007558458811848E-3</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>0</c:v>
+                  <c:v>3.4347042085163607E-3</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>0</c:v>
+                  <c:v>2.933391893354858E-3</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>0</c:v>
+                  <c:v>2.3151995594332684E-3</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>0</c:v>
+                  <c:v>1.6024836972649676E-3</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>0</c:v>
+                  <c:v>8.2077341574882882E-4</c:v>
                 </c:pt>
                 <c:pt idx="160">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>0</c:v>
+                  <c:v>8.2920021707667195E-4</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>0</c:v>
+                  <c:v>1.635418600848113E-3</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>0</c:v>
+                  <c:v>2.3868255068186278E-3</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>0</c:v>
+                  <c:v>3.0552053940774587E-3</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>0</c:v>
+                  <c:v>3.6141014097559577E-3</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>0</c:v>
+                  <c:v>4.0405903034086491E-3</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>0</c:v>
+                  <c:v>4.3160983538376415E-3</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>0</c:v>
+                  <c:v>4.4290608485321129E-3</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>0</c:v>
+                  <c:v>4.3731501231949492E-3</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>0</c:v>
+                  <c:v>4.1476278762685543E-3</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>0</c:v>
+                  <c:v>3.759381997084095E-3</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>0</c:v>
+                  <c:v>3.2204005961991747E-3</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>0</c:v>
+                  <c:v>2.5488171766527312E-3</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>0</c:v>
+                  <c:v>1.769698844436533E-3</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>0</c:v>
+                  <c:v>9.092084469471233E-4</c:v>
                 </c:pt>
                 <c:pt idx="176">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>0</c:v>
+                  <c:v>9.2421480187237853E-4</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>0</c:v>
+                  <c:v>1.8286153231338732E-3</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>0</c:v>
+                  <c:v>2.6778089924413954E-3</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>0</c:v>
+                  <c:v>3.4390471063944442E-3</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>0</c:v>
+                  <c:v>4.0810960537581075E-3</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>0</c:v>
+                  <c:v>4.5776344327610958E-3</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>0</c:v>
+                  <c:v>4.9068235142503344E-3</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>0</c:v>
+                  <c:v>5.0532437107268045E-3</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>0</c:v>
+                  <c:v>5.0070687033433045E-3</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>0</c:v>
+                  <c:v>4.7660937884183522E-3</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>0</c:v>
+                  <c:v>4.3356531226563773E-3</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>0</c:v>
+                  <c:v>3.7274190802752513E-3</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>0</c:v>
+                  <c:v>2.9619513838008886E-3</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>0</c:v>
+                  <c:v>2.0639656004885353E-3</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>0</c:v>
+                  <c:v>1.064978873029883E-3</c:v>
                 </c:pt>
                 <c:pt idx="192">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>0</c:v>
+                  <c:v>1.0911484775226513E-3</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>0</c:v>
+                  <c:v>2.1679310413387234E-3</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>0</c:v>
+                  <c:v>3.1883845439344355E-3</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>0</c:v>
+                  <c:v>4.1132648832770298E-3</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>0</c:v>
+                  <c:v>4.9031044247496913E-3</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>0</c:v>
+                  <c:v>5.5254626050675612E-3</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>0</c:v>
+                  <c:v>5.9503252011969899E-3</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>0</c:v>
+                  <c:v>6.1574699349651726E-3</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>0</c:v>
+                  <c:v>6.131225815446696E-3</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>0</c:v>
+                  <c:v>5.8656847000158469E-3</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>0</c:v>
+                  <c:v>5.3641276084746533E-3</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>0</c:v>
+                  <c:v>4.6364663268484976E-3</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>0</c:v>
+                  <c:v>3.704173862010259E-3</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>0</c:v>
+                  <c:v>2.5965658089099146E-3</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>0</c:v>
+                  <c:v>1.3472063687497917E-3</c:v>
                 </c:pt>
                 <c:pt idx="208">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>0</c:v>
+                  <c:v>1.3970987796143835E-3</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>0</c:v>
+                  <c:v>2.7945207102471076E-3</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>0</c:v>
+                  <c:v>4.1368326047835201E-3</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>0</c:v>
+                  <c:v>5.3723652146889641E-3</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>0</c:v>
+                  <c:v>6.4504133976048391E-3</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>0</c:v>
+                  <c:v>7.3221937969436459E-3</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>0</c:v>
+                  <c:v>7.9455699606762013E-3</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>0</c:v>
+                  <c:v>8.2863562559185207E-3</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>0</c:v>
+                  <c:v>8.3186547590340595E-3</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>0</c:v>
+                  <c:v>8.0270655285726925E-3</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>0</c:v>
+                  <c:v>7.4053041125938914E-3</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>0</c:v>
+                  <c:v>6.4602046407215303E-3</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>0</c:v>
+                  <c:v>5.2112900514172111E-3</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>0</c:v>
+                  <c:v>3.6885510705424699E-3</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>0</c:v>
+                  <c:v>1.9344063688894327E-3</c:v>
                 </c:pt>
                 <c:pt idx="224">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>0</c:v>
+                  <c:v>2.052676301806985E-3</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>0</c:v>
+                  <c:v>4.1533901815264118E-3</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>0</c:v>
+                  <c:v>6.2282536878325691E-3</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>0</c:v>
+                  <c:v>8.199209961941456E-3</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>0</c:v>
+                  <c:v>9.9840865881661908E-3</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>0</c:v>
+                  <c:v>1.1504723247431899E-2</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>0</c:v>
+                  <c:v>1.2685314737916438E-2</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>0</c:v>
+                  <c:v>1.3456372653876674E-2</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>0</c:v>
+                  <c:v>1.3755256522508041E-2</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>0</c:v>
+                  <c:v>1.3531170015929886E-2</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>0</c:v>
+                  <c:v>1.2743854715116616E-2</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>0</c:v>
+                  <c:v>1.1367645886462158E-2</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>0</c:v>
+                  <c:v>9.392121379113454E-3</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>0</c:v>
+                  <c:v>6.8228054347167187E-3</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>0</c:v>
+                  <c:v>3.6797614053087732E-3</c:v>
                 </c:pt>
                 <c:pt idx="240">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>0</c:v>
+                  <c:v>4.1633271550527958E-3</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>0</c:v>
+                  <c:v>8.7437549142230647E-3</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>0</c:v>
+                  <c:v>1.3661443701161308E-2</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>0</c:v>
+                  <c:v>1.8824725363202514E-2</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>0</c:v>
+                  <c:v>2.413455466753012E-2</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>0</c:v>
+                  <c:v>2.9481731309405831E-2</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>0</c:v>
+                  <c:v>3.4759759277072103E-2</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>0</c:v>
+                  <c:v>3.9851881210301733E-2</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>0</c:v>
+                  <c:v>4.4654637620296506E-2</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>0</c:v>
+                  <c:v>4.9056859255357965E-2</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>0</c:v>
+                  <c:v>5.2968614952630201E-2</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>0.5</c:v>
+                  <c:v>0.55623082772532484</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>0</c:v>
+                  <c:v>5.8959909777746435E-2</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>0</c:v>
+                  <c:v>6.0912324467220912E-2</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>0</c:v>
+                  <c:v>6.2100662935269862E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1963,769 +1963,769 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>3.129321947670261</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>-2.4545928019495053E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>3.1047803169421062</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>-4.9655756198279232E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>3.0802325863676403</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>-7.3632606297994257E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>3.0556933800466224</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>-9.8168089345341589E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>3.031151474146716</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>-0.12272261082110131</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>3.0065986690162245</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>-0.14725351570695991</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>2.9820758211296998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>-0.17182339261663149</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>2.9575283809956536</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>-0.20858792905826865</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>2.9206821649619639</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>-0.23315131320072366</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>2.8961659427011459</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>-0.25771113072871438</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>2.8716071017767808</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>-0.28224415566864014</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>2.8470822270111666</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>-0.30679280689002375</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>2.8225083197519836</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>-0.33134767508859353</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>2.7980108331711779</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>-0.3558767030799696</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>2.7733816550613617</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>-0.38032544713424149</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>2.7367008673047097</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>-0.41731593960667063</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>2.7121065734074516</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0</c:v>
+                  <c:v>-0.44177047391523144</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0</c:v>
+                  <c:v>2.6875473584635539</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0</c:v>
+                  <c:v>-0.46632184631626777</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0</c:v>
+                  <c:v>2.6629991174024066</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>-0.49085178039801919</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0</c:v>
+                  <c:v>2.6384792633024903</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0</c:v>
+                  <c:v>-0.51540246294019909</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0</c:v>
+                  <c:v>2.6139087778347307</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0</c:v>
+                  <c:v>-0.53997258719301533</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0</c:v>
+                  <c:v>2.5893992363747369</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0</c:v>
+                  <c:v>-0.5644786998607203</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0</c:v>
+                  <c:v>2.5647073208181661</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0</c:v>
+                  <c:v>-0.60117869913906552</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0</c:v>
+                  <c:v>2.528058682698576</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0</c:v>
+                  <c:v>-0.62574031593143753</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0</c:v>
+                  <c:v>2.5034404714382599</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0</c:v>
+                  <c:v>-0.65039883683108501</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0</c:v>
+                  <c:v>2.4788598677820799</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0</c:v>
+                  <c:v>-0.67491924528592873</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0</c:v>
+                  <c:v>2.454423374041498</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0</c:v>
+                  <c:v>-0.69949368975086534</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0</c:v>
+                  <c:v>2.4298451949424735</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0</c:v>
+                  <c:v>-0.72406786423002623</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0</c:v>
+                  <c:v>2.4053802610315418</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0</c:v>
+                  <c:v>-0.7485750465688078</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0</c:v>
+                  <c:v>2.3806594285521072</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0</c:v>
+                  <c:v>-0.77308511104122113</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0</c:v>
+                  <c:v>2.3442428680514364</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0</c:v>
+                  <c:v>-0.81006759227683944</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0</c:v>
+                  <c:v>2.319421776589468</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0</c:v>
+                  <c:v>-0.83455132241168739</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0</c:v>
+                  <c:v>2.2948337086125314</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0</c:v>
+                  <c:v>-0.85905224769681565</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0</c:v>
+                  <c:v>2.2703675833133579</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0</c:v>
+                  <c:v>-0.88350736296171961</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0</c:v>
+                  <c:v>2.2457282362652444</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0</c:v>
+                  <c:v>-0.9082012269386962</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0</c:v>
+                  <c:v>2.2211583913963859</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0</c:v>
+                  <c:v>-0.93252924987982144</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0</c:v>
+                  <c:v>2.1968195710624192</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0</c:v>
+                  <c:v>-0.9571583147256516</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0</c:v>
+                  <c:v>2.1723035114832392</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0</c:v>
+                  <c:v>-0.993775588034429</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0</c:v>
+                  <c:v>2.1354452838191289</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0</c:v>
+                  <c:v>-1.0186015818142704</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0</c:v>
+                  <c:v>2.1108963042304709</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0</c:v>
+                  <c:v>-1.0431048220379486</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0</c:v>
+                  <c:v>2.0861145940714207</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0</c:v>
+                  <c:v>-1.0675624087069207</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0</c:v>
+                  <c:v>2.061709904251297</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0</c:v>
+                  <c:v>-1.0921239417442616</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0</c:v>
+                  <c:v>2.0372109458894596</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0</c:v>
+                  <c:v>-1.1168006888138651</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0</c:v>
+                  <c:v>2.0124855330647398</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0</c:v>
+                  <c:v>-1.1412562205450303</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0</c:v>
+                  <c:v>1.9882135540473604</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0</c:v>
+                  <c:v>-1.1654294811631278</c:v>
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0</c:v>
+                  <c:v>1.9515289482472926</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0</c:v>
+                  <c:v>-1.2024576189515912</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0</c:v>
+                  <c:v>1.9268371115258609</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0</c:v>
+                  <c:v>-1.2272678918288447</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0</c:v>
+                  <c:v>1.9020300698808885</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0</c:v>
+                  <c:v>-1.2517914182153504</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0</c:v>
+                  <c:v>1.8776742861992235</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0</c:v>
+                  <c:v>-1.2762420413433369</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0</c:v>
+                  <c:v>1.8530561565641364</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0</c:v>
+                  <c:v>-1.3007500294099916</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0</c:v>
+                  <c:v>1.8284837221960659</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0</c:v>
+                  <c:v>-1.3253065904586963</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0</c:v>
+                  <c:v>1.8038125371822458</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0</c:v>
+                  <c:v>-1.3497206466990308</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0</c:v>
+                  <c:v>1.7790199701101308</c:v>
                 </c:pt>
                 <c:pt idx="112">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0</c:v>
+                  <c:v>-1.3865579024177717</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0</c:v>
+                  <c:v>1.7423378090921082</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0</c:v>
+                  <c:v>-1.411332381321458</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0</c:v>
+                  <c:v>1.718163343051236</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0</c:v>
+                  <c:v>-1.4358457022903939</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0</c:v>
+                  <c:v>1.6934799376948848</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0</c:v>
+                  <c:v>-1.4603110056880679</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0</c:v>
+                  <c:v>1.6690452819257702</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0</c:v>
+                  <c:v>-1.4848690453571762</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0</c:v>
+                  <c:v>1.644367923795732</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0</c:v>
+                  <c:v>-1.5092976208177733</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0</c:v>
+                  <c:v>1.6199962713476228</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>0</c:v>
+                  <c:v>-1.5339466557804036</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0</c:v>
+                  <c:v>1.5955404394023054</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0</c:v>
+                  <c:v>-1.5589858523405815</c:v>
                 </c:pt>
                 <c:pt idx="128">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0</c:v>
+                  <c:v>1.5589858523405815</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0</c:v>
+                  <c:v>-1.5955404394023054</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>0</c:v>
+                  <c:v>1.5339466557804036</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>0</c:v>
+                  <c:v>-1.6199962713476228</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>0</c:v>
+                  <c:v>1.5092976208177733</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>0</c:v>
+                  <c:v>-1.644367923795732</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>0</c:v>
+                  <c:v>1.4848690453571762</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>0</c:v>
+                  <c:v>-1.6690452819257702</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>0</c:v>
+                  <c:v>1.4603110056880679</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>0</c:v>
+                  <c:v>-1.6934799376948848</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>0</c:v>
+                  <c:v>1.4358457022903939</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>0</c:v>
+                  <c:v>-1.718163343051236</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>0</c:v>
+                  <c:v>1.411332381321458</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>0</c:v>
+                  <c:v>-1.7423378090921082</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>0</c:v>
+                  <c:v>1.3865579024177717</c:v>
                 </c:pt>
                 <c:pt idx="144">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>0</c:v>
+                  <c:v>-1.7790199701101308</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0</c:v>
+                  <c:v>1.3497206466990308</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>0</c:v>
+                  <c:v>-1.8038125371822458</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>0</c:v>
+                  <c:v>1.3253065904586963</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>0</c:v>
+                  <c:v>-1.8284837221960659</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>0</c:v>
+                  <c:v>1.3007500294099916</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>0</c:v>
+                  <c:v>-1.8530561565641364</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>0</c:v>
+                  <c:v>1.2762420413433369</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>0</c:v>
+                  <c:v>-1.8776742861992235</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>0</c:v>
+                  <c:v>1.2517914182153504</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>0</c:v>
+                  <c:v>-1.9020300698808885</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>0</c:v>
+                  <c:v>1.2272678918288447</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>0</c:v>
+                  <c:v>-1.9268371115258609</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>0</c:v>
+                  <c:v>1.2024576189515912</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>0</c:v>
+                  <c:v>-1.9515289482472926</c:v>
                 </c:pt>
                 <c:pt idx="160">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>0</c:v>
+                  <c:v>1.1654294811631278</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>0</c:v>
+                  <c:v>-1.9882135540473604</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>0</c:v>
+                  <c:v>1.1412562205450303</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>0</c:v>
+                  <c:v>-2.0124855330647398</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>0</c:v>
+                  <c:v>1.1168006888138651</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>0</c:v>
+                  <c:v>-2.0372109458894596</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>0</c:v>
+                  <c:v>1.0921239417442616</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>0</c:v>
+                  <c:v>-2.061709904251297</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>0</c:v>
+                  <c:v>1.0675624087069207</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>0</c:v>
+                  <c:v>-2.0861145940714207</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>0</c:v>
+                  <c:v>1.0431048220379486</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>0</c:v>
+                  <c:v>-2.1108963042304709</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>0</c:v>
+                  <c:v>1.0186015818142704</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>0</c:v>
+                  <c:v>-2.1354452838191289</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>0</c:v>
+                  <c:v>0.993775588034429</c:v>
                 </c:pt>
                 <c:pt idx="176">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>0</c:v>
+                  <c:v>-2.1723035114832392</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>0</c:v>
+                  <c:v>0.9571583147256516</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>0</c:v>
+                  <c:v>-2.1968195710624192</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>0</c:v>
+                  <c:v>0.93252924987982144</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>0</c:v>
+                  <c:v>-2.2211583913963859</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>0</c:v>
+                  <c:v>0.9082012269386962</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>0</c:v>
+                  <c:v>-2.2457282362652444</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>0</c:v>
+                  <c:v>0.88350736296171961</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>0</c:v>
+                  <c:v>-2.2703675833133579</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>0</c:v>
+                  <c:v>0.85905224769681565</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>0</c:v>
+                  <c:v>-2.2948337086125314</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>0</c:v>
+                  <c:v>0.83455132241168739</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>0</c:v>
+                  <c:v>-2.319421776589468</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>0</c:v>
+                  <c:v>0.81006759227683944</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>0</c:v>
+                  <c:v>-2.3442428680514364</c:v>
                 </c:pt>
                 <c:pt idx="192">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>0</c:v>
+                  <c:v>0.77308511104122113</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>0</c:v>
+                  <c:v>-2.3806594285521072</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>0</c:v>
+                  <c:v>0.7485750465688078</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>0</c:v>
+                  <c:v>-2.4053802610315418</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>0</c:v>
+                  <c:v>0.72406786423002623</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>0</c:v>
+                  <c:v>-2.4298451949424735</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>0</c:v>
+                  <c:v>0.69949368975086534</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>0</c:v>
+                  <c:v>-2.454423374041498</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>0</c:v>
+                  <c:v>0.67491924528592873</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>0</c:v>
+                  <c:v>-2.4788598677820799</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>0</c:v>
+                  <c:v>0.65039883683108501</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>0</c:v>
+                  <c:v>-2.5034404714382599</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>0</c:v>
+                  <c:v>0.62589843418012825</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>0</c:v>
+                  <c:v>-2.528058682698576</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>0</c:v>
+                  <c:v>0.60117869913906552</c:v>
                 </c:pt>
                 <c:pt idx="208">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>0</c:v>
+                  <c:v>-2.5647073208181661</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>0</c:v>
+                  <c:v>0.5644786998607203</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>0</c:v>
+                  <c:v>-2.5893992363747369</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>0</c:v>
+                  <c:v>0.53997258719301533</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>0</c:v>
+                  <c:v>-2.6139087778347307</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>0</c:v>
+                  <c:v>0.51540246294019909</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>0</c:v>
+                  <c:v>-2.6384792633024903</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>0</c:v>
+                  <c:v>0.49085178039801919</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>0</c:v>
+                  <c:v>-2.6629991174024066</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>0</c:v>
+                  <c:v>0.46632184631626777</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>0</c:v>
+                  <c:v>-2.6875473584635539</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>0</c:v>
+                  <c:v>0.44177047391523144</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>0</c:v>
+                  <c:v>-2.7121065734074516</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>0</c:v>
+                  <c:v>0.41731593960667063</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>0</c:v>
+                  <c:v>-2.7367008673047097</c:v>
                 </c:pt>
                 <c:pt idx="224">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>0</c:v>
+                  <c:v>0.38032544713424149</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>0</c:v>
+                  <c:v>-2.7733816550613617</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>0</c:v>
+                  <c:v>0.3558767030799696</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>0</c:v>
+                  <c:v>-2.7980108331711779</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>0</c:v>
+                  <c:v>0.33134767508859353</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>0</c:v>
+                  <c:v>-2.8225083197519836</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>0</c:v>
+                  <c:v>0.30679280689002375</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>0</c:v>
+                  <c:v>-2.8470822270111666</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>0</c:v>
+                  <c:v>0.28224415566864014</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>0</c:v>
+                  <c:v>-2.8716071017767808</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>0</c:v>
+                  <c:v>0.25771113072871438</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>0</c:v>
+                  <c:v>-2.8961659427011459</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>0</c:v>
+                  <c:v>0.23315131320072366</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>0</c:v>
+                  <c:v>-2.9206821649619639</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>0</c:v>
+                  <c:v>0.20858792905826865</c:v>
                 </c:pt>
                 <c:pt idx="240">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>0</c:v>
+                  <c:v>-2.9575283809956536</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>0</c:v>
+                  <c:v>0.17182339261663149</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>0</c:v>
+                  <c:v>-2.9820758211296998</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>0</c:v>
+                  <c:v>0.14725351570695991</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>0</c:v>
+                  <c:v>-3.0066042454336133</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>0</c:v>
+                  <c:v>0.12272261082110131</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>0</c:v>
+                  <c:v>-3.0311546449627813</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>0</c:v>
+                  <c:v>9.8170548714597017E-2</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>0</c:v>
+                  <c:v>-3.0556953013179573</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>0</c:v>
+                  <c:v>7.3613776632370037E-2</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>0</c:v>
+                  <c:v>-3.080253745335146</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>0</c:v>
+                  <c:v>4.9547977913160677E-3</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>0</c:v>
+                  <c:v>-3.1047966419073796</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>0</c:v>
+                  <c:v>2.452951592600457E-2</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>0</c:v>
+                  <c:v>-3.1293380493456477</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3290,7 +3290,7 @@
   <dimension ref="A1:F257"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F257"/>
+      <selection activeCell="C2" sqref="C2:D257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3325,18 +3325,18 @@
         <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
       </c>
       <c r="E2" s="1">
         <f>SQRT(POWER(C2,2)+POWER(D2,2))</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="F2" s="1">
+        <f>ATAN2(C2,D2)</f>
         <v>0</v>
-      </c>
-      <c r="F2" s="1" t="e">
-        <f>ATAN2(C2,D2)</f>
-        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -3344,18 +3344,18 @@
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>0</v>
+        <v>-6.2095999999999998E-2</v>
       </c>
       <c r="D3" s="1">
-        <v>0</v>
+        <v>7.6199999999999998E-4</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" ref="E3:E66" si="0">SQRT(POWER(C3,2)+POWER(D3,2))</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="1" t="e">
+        <v>6.2100675197617618E-2</v>
+      </c>
+      <c r="F3" s="1">
         <f t="shared" ref="F3:F66" si="1">ATAN2(C3,D3)</f>
-        <v>#DIV/0!</v>
+        <v>3.129321947670261</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -3363,18 +3363,18 @@
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>0</v>
+        <v>6.0893999999999997E-2</v>
       </c>
       <c r="D4" s="1">
-        <v>0</v>
+        <v>-1.495E-3</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F4" s="1" t="e">
+        <v>6.0912349002480604E-2</v>
+      </c>
+      <c r="F4" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>-2.4545928019495053E-2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -3382,18 +3382,18 @@
         <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>0</v>
+        <v>-5.8921000000000001E-2</v>
       </c>
       <c r="D5" s="1">
-        <v>0</v>
+        <v>2.1700000000000001E-3</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F5" s="1" t="e">
+        <v>5.8960945896415193E-2</v>
+      </c>
+      <c r="F5" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>3.1047803169421062</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -3401,18 +3401,18 @@
         <v>4</v>
       </c>
       <c r="C6" s="1">
-        <v>0.5</v>
+        <v>0.55622499999999997</v>
       </c>
       <c r="D6" s="1">
-        <v>0</v>
+        <v>-2.7620000000000001E-3</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.55623185747402137</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-4.9655756198279232E-3</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -3420,18 +3420,18 @@
         <v>5</v>
       </c>
       <c r="C7" s="1">
-        <v>0</v>
+        <v>-5.2866999999999997E-2</v>
       </c>
       <c r="D7" s="1">
-        <v>0</v>
+        <v>3.248E-3</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F7" s="1" t="e">
+        <v>5.2966680026220257E-2</v>
+      </c>
+      <c r="F7" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>3.0802325863676403</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -3439,18 +3439,18 @@
         <v>6</v>
       </c>
       <c r="C8" s="1">
-        <v>0</v>
+        <v>4.8925000000000003E-2</v>
       </c>
       <c r="D8" s="1">
-        <v>0</v>
+        <v>-3.6089999999999998E-3</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="1" t="e">
+        <v>4.9057930103093429E-2</v>
+      </c>
+      <c r="F8" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>-7.3632606297994257E-2</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -3458,18 +3458,18 @@
         <v>7</v>
       </c>
       <c r="C9" s="1">
-        <v>0</v>
+        <v>-4.4489000000000001E-2</v>
       </c>
       <c r="D9" s="1">
-        <v>0</v>
+        <v>3.8310000000000002E-3</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="1" t="e">
+        <v>4.4653641307288702E-2</v>
+      </c>
+      <c r="F9" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>3.0556933800466224</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -3477,18 +3477,18 @@
         <v>8</v>
       </c>
       <c r="C10" s="1">
-        <v>0</v>
+        <v>3.9661000000000002E-2</v>
       </c>
       <c r="D10" s="1">
-        <v>0</v>
+        <v>-3.9060000000000002E-3</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="1" t="e">
+        <v>3.9852876395562717E-2</v>
+      </c>
+      <c r="F10" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>-9.8168089345341589E-2</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -3496,18 +3496,18 @@
         <v>9</v>
       </c>
       <c r="C11" s="1">
-        <v>0</v>
+        <v>-3.4547000000000001E-2</v>
       </c>
       <c r="D11" s="1">
-        <v>0</v>
+        <v>3.8310000000000002E-3</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="1" t="e">
+        <v>3.4758765369328072E-2</v>
+      </c>
+      <c r="F11" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>3.031151474146716</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -3515,18 +3515,18 @@
         <v>10</v>
       </c>
       <c r="C12" s="1">
-        <v>0</v>
+        <v>2.9260000000000001E-2</v>
       </c>
       <c r="D12" s="1">
-        <v>0</v>
+        <v>-3.6089999999999998E-3</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F12" s="1" t="e">
+        <v>2.9481731309405831E-2</v>
+      </c>
+      <c r="F12" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>-0.12272261082110131</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -3534,18 +3534,18 @@
         <v>11</v>
       </c>
       <c r="C13" s="1">
-        <v>0</v>
+        <v>-2.3914000000000001E-2</v>
       </c>
       <c r="D13" s="1">
-        <v>0</v>
+        <v>3.248E-3</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F13" s="1" t="e">
+        <v>2.413356376501407E-2</v>
+      </c>
+      <c r="F13" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>3.0065986690162245</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -3553,18 +3553,18 @@
         <v>12</v>
       </c>
       <c r="C14" s="1">
-        <v>0</v>
+        <v>1.8620999999999999E-2</v>
       </c>
       <c r="D14" s="1">
-        <v>0</v>
+        <v>-2.7620000000000001E-3</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F14" s="1" t="e">
+        <v>1.8824725363202514E-2</v>
+      </c>
+      <c r="F14" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>-0.14725351570695991</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -3572,18 +3572,18 @@
         <v>13</v>
       </c>
       <c r="C15" s="1">
-        <v>0</v>
+        <v>-1.3488E-2</v>
       </c>
       <c r="D15" s="1">
-        <v>0</v>
+        <v>2.1700000000000001E-3</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F15" s="1" t="e">
+        <v>1.3661443701161308E-2</v>
+      </c>
+      <c r="F15" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>2.9820758211296998</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -3591,18 +3591,18 @@
         <v>14</v>
       </c>
       <c r="C16" s="1">
-        <v>0</v>
+        <v>8.6149999999999994E-3</v>
       </c>
       <c r="D16" s="1">
-        <v>0</v>
+        <v>-1.495E-3</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F16" s="1" t="e">
+        <v>8.7437549142230647E-3</v>
+      </c>
+      <c r="F16" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>-0.17182339261663149</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -3610,18 +3610,18 @@
         <v>15</v>
       </c>
       <c r="C17" s="1">
-        <v>0</v>
+        <v>-4.0930000000000003E-3</v>
       </c>
       <c r="D17" s="1">
-        <v>0</v>
+        <v>7.6199999999999998E-4</v>
       </c>
       <c r="E17" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F17" s="1" t="e">
+        <v>4.1633271550527958E-3</v>
+      </c>
+      <c r="F17" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>2.9575283809956536</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -3648,18 +3648,18 @@
         <v>17</v>
       </c>
       <c r="C19" s="1">
-        <v>0</v>
+        <v>3.5999999999999999E-3</v>
       </c>
       <c r="D19" s="1">
-        <v>0</v>
+        <v>-7.6199999999999998E-4</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F19" s="1" t="e">
+        <v>3.6797614053087732E-3</v>
+      </c>
+      <c r="F19" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>-0.20858792905826865</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -3667,18 +3667,18 @@
         <v>18</v>
       </c>
       <c r="C20" s="1">
-        <v>0</v>
+        <v>-6.6569999999999997E-3</v>
       </c>
       <c r="D20" s="1">
-        <v>0</v>
+        <v>1.495E-3</v>
       </c>
       <c r="E20" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F20" s="1" t="e">
+        <v>6.8228054347167187E-3</v>
+      </c>
+      <c r="F20" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>2.9206821649619639</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -3686,18 +3686,18 @@
         <v>19</v>
       </c>
       <c r="C21" s="1">
-        <v>0</v>
+        <v>9.1380000000000003E-3</v>
       </c>
       <c r="D21" s="1">
-        <v>0</v>
+        <v>-2.1700000000000001E-3</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F21" s="1" t="e">
+        <v>9.392121379113454E-3</v>
+      </c>
+      <c r="F21" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>-0.23315131320072366</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -3705,18 +3705,18 @@
         <v>20</v>
       </c>
       <c r="C22" s="1">
-        <v>0</v>
+        <v>-1.1027E-2</v>
       </c>
       <c r="D22" s="1">
-        <v>0</v>
+        <v>2.7620000000000001E-3</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F22" s="1" t="e">
+        <v>1.1367645886462158E-2</v>
+      </c>
+      <c r="F22" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>2.8961659427011459</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -3724,18 +3724,18 @@
         <v>21</v>
       </c>
       <c r="C23" s="1">
-        <v>0</v>
+        <v>1.2323000000000001E-2</v>
       </c>
       <c r="D23" s="1">
-        <v>0</v>
+        <v>-3.248E-3</v>
       </c>
       <c r="E23" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F23" s="1" t="e">
+        <v>1.2743854715116616E-2</v>
+      </c>
+      <c r="F23" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>-0.25771113072871438</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -3743,18 +3743,18 @@
         <v>22</v>
       </c>
       <c r="C24" s="1">
-        <v>0</v>
+        <v>-1.3041000000000001E-2</v>
       </c>
       <c r="D24" s="1">
-        <v>0</v>
+        <v>3.6089999999999998E-3</v>
       </c>
       <c r="E24" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F24" s="1" t="e">
+        <v>1.3531170015929886E-2</v>
+      </c>
+      <c r="F24" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>2.8716071017767808</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -3762,18 +3762,18 @@
         <v>23</v>
       </c>
       <c r="C25" s="1">
-        <v>0</v>
+        <v>1.3211000000000001E-2</v>
       </c>
       <c r="D25" s="1">
-        <v>0</v>
+        <v>-3.8310000000000002E-3</v>
       </c>
       <c r="E25" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F25" s="1" t="e">
+        <v>1.3755256522508041E-2</v>
+      </c>
+      <c r="F25" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>-0.28224415566864014</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -3781,18 +3781,18 @@
         <v>24</v>
       </c>
       <c r="C26" s="1">
-        <v>0</v>
+        <v>-1.2877E-2</v>
       </c>
       <c r="D26" s="1">
-        <v>0</v>
+        <v>3.9060000000000002E-3</v>
       </c>
       <c r="E26" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="1" t="e">
+        <v>1.3456372653876674E-2</v>
+      </c>
+      <c r="F26" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>2.8470822270111666</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -3800,18 +3800,18 @@
         <v>25</v>
       </c>
       <c r="C27" s="1">
-        <v>0</v>
+        <v>1.2093E-2</v>
       </c>
       <c r="D27" s="1">
-        <v>0</v>
+        <v>-3.8310000000000002E-3</v>
       </c>
       <c r="E27" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F27" s="1" t="e">
+        <v>1.2685314737916438E-2</v>
+      </c>
+      <c r="F27" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>-0.30679280689002375</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -3819,18 +3819,18 @@
         <v>26</v>
       </c>
       <c r="C28" s="1">
-        <v>0</v>
+        <v>-1.0924E-2</v>
       </c>
       <c r="D28" s="1">
-        <v>0</v>
+        <v>3.6089999999999998E-3</v>
       </c>
       <c r="E28" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F28" s="1" t="e">
+        <v>1.1504723247431899E-2</v>
+      </c>
+      <c r="F28" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>2.8225083197519836</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -3838,18 +3838,18 @@
         <v>27</v>
       </c>
       <c r="C29" s="1">
-        <v>0</v>
+        <v>9.4409999999999997E-3</v>
       </c>
       <c r="D29" s="1">
-        <v>0</v>
+        <v>-3.248E-3</v>
       </c>
       <c r="E29" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F29" s="1" t="e">
+        <v>9.9840865881661908E-3</v>
+      </c>
+      <c r="F29" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>-0.33134767508859353</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -3857,18 +3857,18 @@
         <v>28</v>
       </c>
       <c r="C30" s="1">
-        <v>0</v>
+        <v>-7.7200000000000003E-3</v>
       </c>
       <c r="D30" s="1">
-        <v>0</v>
+        <v>2.7620000000000001E-3</v>
       </c>
       <c r="E30" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F30" s="1" t="e">
+        <v>8.199209961941456E-3</v>
+      </c>
+      <c r="F30" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>2.7980108331711779</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -3876,18 +3876,18 @@
         <v>29</v>
       </c>
       <c r="C31" s="1">
-        <v>0</v>
+        <v>5.8380000000000003E-3</v>
       </c>
       <c r="D31" s="1">
-        <v>0</v>
+        <v>-2.1700000000000001E-3</v>
       </c>
       <c r="E31" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F31" s="1" t="e">
+        <v>6.2282536878325691E-3</v>
+      </c>
+      <c r="F31" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>-0.3558767030799696</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -3895,18 +3895,18 @@
         <v>30</v>
       </c>
       <c r="C32" s="1">
-        <v>0</v>
+        <v>-3.875E-3</v>
       </c>
       <c r="D32" s="1">
-        <v>0</v>
+        <v>1.495E-3</v>
       </c>
       <c r="E32" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F32" s="1" t="e">
+        <v>4.1533901815264118E-3</v>
+      </c>
+      <c r="F32" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>2.7733816550613617</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -3914,18 +3914,18 @@
         <v>31</v>
       </c>
       <c r="C33" s="1">
-        <v>0</v>
+        <v>1.9059999999999999E-3</v>
       </c>
       <c r="D33" s="1">
-        <v>0</v>
+        <v>-7.6199999999999998E-4</v>
       </c>
       <c r="E33" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F33" s="1" t="e">
+        <v>2.052676301806985E-3</v>
+      </c>
+      <c r="F33" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>-0.38032544713424149</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -3952,18 +3952,18 @@
         <v>33</v>
       </c>
       <c r="C35" s="1">
-        <v>0</v>
+        <v>-1.7780000000000001E-3</v>
       </c>
       <c r="D35" s="1">
-        <v>0</v>
+        <v>7.6199999999999998E-4</v>
       </c>
       <c r="E35" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F35" s="1" t="e">
+        <v>1.9344063688894327E-3</v>
+      </c>
+      <c r="F35" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>2.7367008673047097</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -3971,18 +3971,18 @@
         <v>34</v>
       </c>
       <c r="C36" s="1">
-        <v>0</v>
+        <v>3.372E-3</v>
       </c>
       <c r="D36" s="1">
-        <v>0</v>
+        <v>-1.495E-3</v>
       </c>
       <c r="E36" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F36" s="1" t="e">
+        <v>3.6885510705424699E-3</v>
+      </c>
+      <c r="F36" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>-0.41731593960667063</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -3990,18 +3990,18 @@
         <v>35</v>
       </c>
       <c r="C37" s="1">
-        <v>0</v>
+        <v>-4.738E-3</v>
       </c>
       <c r="D37" s="1">
-        <v>0</v>
+        <v>2.1700000000000001E-3</v>
       </c>
       <c r="E37" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F37" s="1" t="e">
+        <v>5.2112900514172111E-3</v>
+      </c>
+      <c r="F37" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>2.7121065734074516</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -4009,18 +4009,18 @@
         <v>36</v>
       </c>
       <c r="C38" s="1">
-        <v>0</v>
+        <v>5.8399999999999997E-3</v>
       </c>
       <c r="D38" s="1">
-        <v>0</v>
+        <v>-2.7620000000000001E-3</v>
       </c>
       <c r="E38" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F38" s="1" t="e">
+        <v>6.4602046407215303E-3</v>
+      </c>
+      <c r="F38" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>-0.44177047391523144</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -4028,18 +4028,18 @@
         <v>37</v>
       </c>
       <c r="C39" s="1">
-        <v>0</v>
+        <v>-6.6550000000000003E-3</v>
       </c>
       <c r="D39" s="1">
-        <v>0</v>
+        <v>3.248E-3</v>
       </c>
       <c r="E39" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F39" s="1" t="e">
+        <v>7.4053041125938914E-3</v>
+      </c>
+      <c r="F39" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>2.6875473584635539</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -4047,18 +4047,18 @@
         <v>38</v>
       </c>
       <c r="C40" s="1">
-        <v>0</v>
+        <v>7.1700000000000002E-3</v>
       </c>
       <c r="D40" s="1">
-        <v>0</v>
+        <v>-3.6089999999999998E-3</v>
       </c>
       <c r="E40" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F40" s="1" t="e">
+        <v>8.0270655285726925E-3</v>
+      </c>
+      <c r="F40" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>-0.46632184631626777</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -4066,18 +4066,18 @@
         <v>39</v>
       </c>
       <c r="C41" s="1">
-        <v>0</v>
+        <v>-7.3839999999999999E-3</v>
       </c>
       <c r="D41" s="1">
-        <v>0</v>
+        <v>3.8310000000000002E-3</v>
       </c>
       <c r="E41" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F41" s="1" t="e">
+        <v>8.3186547590340595E-3</v>
+      </c>
+      <c r="F41" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>2.6629991174024066</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -4085,18 +4085,18 @@
         <v>40</v>
       </c>
       <c r="C42" s="1">
-        <v>0</v>
+        <v>7.3080000000000003E-3</v>
       </c>
       <c r="D42" s="1">
-        <v>0</v>
+        <v>-3.9060000000000002E-3</v>
       </c>
       <c r="E42" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F42" s="1" t="e">
+        <v>8.2863562559185207E-3</v>
+      </c>
+      <c r="F42" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>-0.49085178039801919</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -4104,18 +4104,18 @@
         <v>41</v>
       </c>
       <c r="C43" s="1">
-        <v>0</v>
+        <v>-6.9610000000000002E-3</v>
       </c>
       <c r="D43" s="1">
-        <v>0</v>
+        <v>3.8310000000000002E-3</v>
       </c>
       <c r="E43" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F43" s="1" t="e">
+        <v>7.9455699606762013E-3</v>
+      </c>
+      <c r="F43" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>2.6384792633024903</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -4123,18 +4123,18 @@
         <v>42</v>
       </c>
       <c r="C44" s="1">
-        <v>0</v>
+        <v>6.3709999999999999E-3</v>
       </c>
       <c r="D44" s="1">
-        <v>0</v>
+        <v>-3.6089999999999998E-3</v>
       </c>
       <c r="E44" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F44" s="1" t="e">
+        <v>7.3221937969436459E-3</v>
+      </c>
+      <c r="F44" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>-0.51540246294019909</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -4142,18 +4142,18 @@
         <v>43</v>
       </c>
       <c r="C45" s="1">
-        <v>0</v>
+        <v>-5.5729999999999998E-3</v>
       </c>
       <c r="D45" s="1">
-        <v>0</v>
+        <v>3.248E-3</v>
       </c>
       <c r="E45" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F45" s="1" t="e">
+        <v>6.4504133976048391E-3</v>
+      </c>
+      <c r="F45" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>2.6139087778347307</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -4161,18 +4161,18 @@
         <v>44</v>
       </c>
       <c r="C46" s="1">
-        <v>0</v>
+        <v>4.6080000000000001E-3</v>
       </c>
       <c r="D46" s="1">
-        <v>0</v>
+        <v>-2.7620000000000001E-3</v>
       </c>
       <c r="E46" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F46" s="1" t="e">
+        <v>5.3723652146889641E-3</v>
+      </c>
+      <c r="F46" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>-0.53997258719301533</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -4180,18 +4180,18 @@
         <v>45</v>
       </c>
       <c r="C47" s="1">
-        <v>0</v>
+        <v>-3.522E-3</v>
       </c>
       <c r="D47" s="1">
-        <v>0</v>
+        <v>2.1700000000000001E-3</v>
       </c>
       <c r="E47" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F47" s="1" t="e">
+        <v>4.1368326047835201E-3</v>
+      </c>
+      <c r="F47" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>2.5893992363747369</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -4199,18 +4199,18 @@
         <v>46</v>
       </c>
       <c r="C48" s="1">
-        <v>0</v>
+        <v>2.3609999999999998E-3</v>
       </c>
       <c r="D48" s="1">
-        <v>0</v>
+        <v>-1.495E-3</v>
       </c>
       <c r="E48" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F48" s="1" t="e">
+        <v>2.7945207102471076E-3</v>
+      </c>
+      <c r="F48" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>-0.5644786998607203</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -4218,18 +4218,18 @@
         <v>47</v>
       </c>
       <c r="C49" s="1">
-        <v>0</v>
+        <v>-1.1709999999999999E-3</v>
       </c>
       <c r="D49" s="1">
-        <v>0</v>
+        <v>7.6199999999999998E-4</v>
       </c>
       <c r="E49" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F49" s="1" t="e">
+        <v>1.3970987796143835E-3</v>
+      </c>
+      <c r="F49" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>2.5647073208181661</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -4256,18 +4256,18 @@
         <v>49</v>
       </c>
       <c r="C51" s="1">
-        <v>0</v>
+        <v>1.111E-3</v>
       </c>
       <c r="D51" s="1">
-        <v>0</v>
+        <v>-7.6199999999999998E-4</v>
       </c>
       <c r="E51" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F51" s="1" t="e">
+        <v>1.3472063687497917E-3</v>
+      </c>
+      <c r="F51" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>-0.60117869913906552</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -4275,18 +4275,18 @@
         <v>50</v>
       </c>
       <c r="C52" s="1">
-        <v>0</v>
+        <v>-2.1229999999999999E-3</v>
       </c>
       <c r="D52" s="1">
-        <v>0</v>
+        <v>1.495E-3</v>
       </c>
       <c r="E52" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F52" s="1" t="e">
+        <v>2.5965658089099146E-3</v>
+      </c>
+      <c r="F52" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>2.528058682698576</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -4294,18 +4294,18 @@
         <v>51</v>
       </c>
       <c r="C53" s="1">
-        <v>0</v>
+        <v>3.003E-3</v>
       </c>
       <c r="D53" s="1">
-        <v>0</v>
+        <v>-2.1700000000000001E-3</v>
       </c>
       <c r="E53" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F53" s="1" t="e">
+        <v>3.70498434544601E-3</v>
+      </c>
+      <c r="F53" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>-0.62574031593143753</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -4313,18 +4313,18 @@
         <v>52</v>
       </c>
       <c r="C54" s="1">
-        <v>0</v>
+        <v>-3.7239999999999999E-3</v>
       </c>
       <c r="D54" s="1">
-        <v>0</v>
+        <v>2.7620000000000001E-3</v>
       </c>
       <c r="E54" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F54" s="1" t="e">
+        <v>4.6364663268484976E-3</v>
+      </c>
+      <c r="F54" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>2.5034404714382599</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -4332,18 +4332,18 @@
         <v>53</v>
       </c>
       <c r="C55" s="1">
-        <v>0</v>
+        <v>4.2690000000000002E-3</v>
       </c>
       <c r="D55" s="1">
-        <v>0</v>
+        <v>-3.248E-3</v>
       </c>
       <c r="E55" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F55" s="1" t="e">
+        <v>5.3641276084746533E-3</v>
+      </c>
+      <c r="F55" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>-0.65039883683108501</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -4351,18 +4351,18 @@
         <v>54</v>
       </c>
       <c r="C56" s="1">
-        <v>0</v>
+        <v>-4.6239999999999996E-3</v>
       </c>
       <c r="D56" s="1">
-        <v>0</v>
+        <v>3.6089999999999998E-3</v>
       </c>
       <c r="E56" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F56" s="1" t="e">
+        <v>5.8656847000158469E-3</v>
+      </c>
+      <c r="F56" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>2.4788598677820799</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -4370,18 +4370,18 @@
         <v>55</v>
       </c>
       <c r="C57" s="1">
-        <v>0</v>
+        <v>4.7869999999999996E-3</v>
       </c>
       <c r="D57" s="1">
-        <v>0</v>
+        <v>-3.8310000000000002E-3</v>
       </c>
       <c r="E57" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F57" s="1" t="e">
+        <v>6.131225815446696E-3</v>
+      </c>
+      <c r="F57" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>-0.67491924528592873</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -4389,18 +4389,18 @@
         <v>56</v>
       </c>
       <c r="C58" s="1">
-        <v>0</v>
+        <v>-4.7600000000000003E-3</v>
       </c>
       <c r="D58" s="1">
-        <v>0</v>
+        <v>3.9060000000000002E-3</v>
       </c>
       <c r="E58" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F58" s="1" t="e">
+        <v>6.1574699349651726E-3</v>
+      </c>
+      <c r="F58" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>2.454423374041498</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -4408,18 +4408,18 @@
         <v>57</v>
       </c>
       <c r="C59" s="1">
-        <v>0</v>
+        <v>4.5529999999999998E-3</v>
       </c>
       <c r="D59" s="1">
-        <v>0</v>
+        <v>-3.8310000000000002E-3</v>
       </c>
       <c r="E59" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F59" s="1" t="e">
+        <v>5.9503252011969899E-3</v>
+      </c>
+      <c r="F59" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>-0.69949368975086534</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -4427,18 +4427,18 @@
         <v>58</v>
       </c>
       <c r="C60" s="1">
-        <v>0</v>
+        <v>-4.1840000000000002E-3</v>
       </c>
       <c r="D60" s="1">
-        <v>0</v>
+        <v>3.6089999999999998E-3</v>
       </c>
       <c r="E60" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F60" s="1" t="e">
+        <v>5.5254626050675612E-3</v>
+      </c>
+      <c r="F60" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>2.4298451949424735</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -4446,18 +4446,18 @@
         <v>59</v>
       </c>
       <c r="C61" s="1">
-        <v>0</v>
+        <v>3.673E-3</v>
       </c>
       <c r="D61" s="1">
-        <v>0</v>
+        <v>-3.248E-3</v>
       </c>
       <c r="E61" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F61" s="1" t="e">
+        <v>4.9031044247496913E-3</v>
+      </c>
+      <c r="F61" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>-0.72406786423002623</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -4465,18 +4465,18 @@
         <v>60</v>
       </c>
       <c r="C62" s="1">
-        <v>0</v>
+        <v>-3.0479999999999999E-3</v>
       </c>
       <c r="D62" s="1">
-        <v>0</v>
+        <v>2.7620000000000001E-3</v>
       </c>
       <c r="E62" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F62" s="1" t="e">
+        <v>4.1132648832770298E-3</v>
+      </c>
+      <c r="F62" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>2.4053802610315418</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -4484,18 +4484,18 @@
         <v>61</v>
       </c>
       <c r="C63" s="1">
-        <v>0</v>
+        <v>2.336E-3</v>
       </c>
       <c r="D63" s="1">
-        <v>0</v>
+        <v>-2.1700000000000001E-3</v>
       </c>
       <c r="E63" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F63" s="1" t="e">
+        <v>3.1883845439344355E-3</v>
+      </c>
+      <c r="F63" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>-0.7485750465688078</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -4503,18 +4503,18 @@
         <v>62</v>
       </c>
       <c r="C64" s="1">
-        <v>0</v>
+        <v>-1.57E-3</v>
       </c>
       <c r="D64" s="1">
-        <v>0</v>
+        <v>1.495E-3</v>
       </c>
       <c r="E64" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F64" s="1" t="e">
+        <v>2.1679310413387234E-3</v>
+      </c>
+      <c r="F64" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>2.3806594285521072</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -4522,18 +4522,18 @@
         <v>63</v>
       </c>
       <c r="C65" s="1">
-        <v>0</v>
+        <v>7.8100000000000001E-4</v>
       </c>
       <c r="D65" s="1">
-        <v>0</v>
+        <v>-7.6199999999999998E-4</v>
       </c>
       <c r="E65" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F65" s="1" t="e">
+        <v>1.0911484775226513E-3</v>
+      </c>
+      <c r="F65" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>-0.77308511104122113</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -4560,18 +4560,18 @@
         <v>65</v>
       </c>
       <c r="C67" s="1">
-        <v>0</v>
+        <v>-7.4399999999999998E-4</v>
       </c>
       <c r="D67" s="1">
-        <v>0</v>
+        <v>7.6199999999999998E-4</v>
       </c>
       <c r="E67" s="1">
         <f t="shared" ref="E67:E130" si="2">SQRT(POWER(C67,2)+POWER(D67,2))</f>
-        <v>0</v>
-      </c>
-      <c r="F67" s="1" t="e">
+        <v>1.064978873029883E-3</v>
+      </c>
+      <c r="F67" s="1">
         <f t="shared" ref="F67:F130" si="3">ATAN2(C67,D67)</f>
-        <v>#DIV/0!</v>
+        <v>2.3442428680514364</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -4579,18 +4579,18 @@
         <v>66</v>
       </c>
       <c r="C68" s="1">
-        <v>0</v>
+        <v>1.423E-3</v>
       </c>
       <c r="D68" s="1">
-        <v>0</v>
+        <v>-1.495E-3</v>
       </c>
       <c r="E68" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F68" s="1" t="e">
+        <v>2.0639656004885353E-3</v>
+      </c>
+      <c r="F68" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>-0.81006759227683944</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -4598,18 +4598,18 @@
         <v>67</v>
       </c>
       <c r="C69" s="1">
-        <v>0</v>
+        <v>-2.016E-3</v>
       </c>
       <c r="D69" s="1">
-        <v>0</v>
+        <v>2.1700000000000001E-3</v>
       </c>
       <c r="E69" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F69" s="1" t="e">
+        <v>2.9619513838008886E-3</v>
+      </c>
+      <c r="F69" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>2.319421776589468</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -4617,18 +4617,18 @@
         <v>68</v>
       </c>
       <c r="C70" s="1">
-        <v>0</v>
+        <v>2.503E-3</v>
       </c>
       <c r="D70" s="1">
-        <v>0</v>
+        <v>-2.7620000000000001E-3</v>
       </c>
       <c r="E70" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F70" s="1" t="e">
+        <v>3.7274190802752513E-3</v>
+      </c>
+      <c r="F70" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>-0.83455132241168739</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -4636,18 +4636,18 @@
         <v>69</v>
       </c>
       <c r="C71" s="1">
-        <v>0</v>
+        <v>-2.872E-3</v>
       </c>
       <c r="D71" s="1">
-        <v>0</v>
+        <v>3.248E-3</v>
       </c>
       <c r="E71" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F71" s="1" t="e">
+        <v>4.3356531226563773E-3</v>
+      </c>
+      <c r="F71" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>2.2948337086125314</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -4655,18 +4655,18 @@
         <v>70</v>
       </c>
       <c r="C72" s="1">
-        <v>0</v>
+        <v>3.1129999999999999E-3</v>
       </c>
       <c r="D72" s="1">
-        <v>0</v>
+        <v>-3.6089999999999998E-3</v>
       </c>
       <c r="E72" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F72" s="1" t="e">
+        <v>4.7660937884183522E-3</v>
+      </c>
+      <c r="F72" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>-0.85905224769681565</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -4674,18 +4674,18 @@
         <v>71</v>
       </c>
       <c r="C73" s="1">
-        <v>0</v>
+        <v>-3.2239999999999999E-3</v>
       </c>
       <c r="D73" s="1">
-        <v>0</v>
+        <v>3.8310000000000002E-3</v>
       </c>
       <c r="E73" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F73" s="1" t="e">
+        <v>5.0070687033433045E-3</v>
+      </c>
+      <c r="F73" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>2.2703675833133579</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
@@ -4693,18 +4693,18 @@
         <v>72</v>
       </c>
       <c r="C74" s="1">
-        <v>0</v>
+        <v>3.2060000000000001E-3</v>
       </c>
       <c r="D74" s="1">
-        <v>0</v>
+        <v>-3.9060000000000002E-3</v>
       </c>
       <c r="E74" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F74" s="1" t="e">
+        <v>5.0532437107268045E-3</v>
+      </c>
+      <c r="F74" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>-0.88350736296171961</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
@@ -4712,18 +4712,18 @@
         <v>73</v>
       </c>
       <c r="C75" s="1">
-        <v>0</v>
+        <v>-3.0660000000000001E-3</v>
       </c>
       <c r="D75" s="1">
-        <v>0</v>
+        <v>3.8310000000000002E-3</v>
       </c>
       <c r="E75" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F75" s="1" t="e">
+        <v>4.9068235142503344E-3</v>
+      </c>
+      <c r="F75" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>2.2457282362652444</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -4731,18 +4731,18 @@
         <v>74</v>
       </c>
       <c r="C76" s="1">
-        <v>0</v>
+        <v>2.8159999999999999E-3</v>
       </c>
       <c r="D76" s="1">
-        <v>0</v>
+        <v>-3.6089999999999998E-3</v>
       </c>
       <c r="E76" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F76" s="1" t="e">
+        <v>4.5776344327610958E-3</v>
+      </c>
+      <c r="F76" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>-0.9082012269386962</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
@@ -4750,18 +4750,18 @@
         <v>75</v>
       </c>
       <c r="C77" s="1">
-        <v>0</v>
+        <v>-2.4710000000000001E-3</v>
       </c>
       <c r="D77" s="1">
-        <v>0</v>
+        <v>3.248E-3</v>
       </c>
       <c r="E77" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F77" s="1" t="e">
+        <v>4.0810960537581075E-3</v>
+      </c>
+      <c r="F77" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>2.2211583913963859</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
@@ -4769,18 +4769,18 @@
         <v>76</v>
       </c>
       <c r="C78" s="1">
-        <v>0</v>
+        <v>2.049E-3</v>
       </c>
       <c r="D78" s="1">
-        <v>0</v>
+        <v>-2.7620000000000001E-3</v>
       </c>
       <c r="E78" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F78" s="1" t="e">
+        <v>3.4390471063944442E-3</v>
+      </c>
+      <c r="F78" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>-0.93252924987982144</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
@@ -4788,18 +4788,18 @@
         <v>77</v>
       </c>
       <c r="C79" s="1">
-        <v>0</v>
+        <v>-1.5690000000000001E-3</v>
       </c>
       <c r="D79" s="1">
-        <v>0</v>
+        <v>2.1700000000000001E-3</v>
       </c>
       <c r="E79" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F79" s="1" t="e">
+        <v>2.6778089924413954E-3</v>
+      </c>
+      <c r="F79" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>2.1968195710624192</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
@@ -4807,18 +4807,18 @@
         <v>78</v>
       </c>
       <c r="C80" s="1">
-        <v>0</v>
+        <v>1.0529999999999999E-3</v>
       </c>
       <c r="D80" s="1">
-        <v>0</v>
+        <v>-1.495E-3</v>
       </c>
       <c r="E80" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F80" s="1" t="e">
+        <v>1.8286153231338732E-3</v>
+      </c>
+      <c r="F80" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>-0.9571583147256516</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
@@ -4826,18 +4826,18 @@
         <v>79</v>
       </c>
       <c r="C81" s="1">
-        <v>0</v>
+        <v>-5.2300000000000003E-4</v>
       </c>
       <c r="D81" s="1">
-        <v>0</v>
+        <v>7.6199999999999998E-4</v>
       </c>
       <c r="E81" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F81" s="1" t="e">
+        <v>9.2421480187237853E-4</v>
+      </c>
+      <c r="F81" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>2.1723035114832392</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
@@ -4864,18 +4864,18 @@
         <v>81</v>
       </c>
       <c r="C83" s="1">
-        <v>0</v>
+        <v>4.9600000000000002E-4</v>
       </c>
       <c r="D83" s="1">
-        <v>0</v>
+        <v>-7.6199999999999998E-4</v>
       </c>
       <c r="E83" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F83" s="1" t="e">
+        <v>9.092084469471233E-4</v>
+      </c>
+      <c r="F83" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>-0.993775588034429</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -4883,18 +4883,18 @@
         <v>82</v>
       </c>
       <c r="C84" s="1">
-        <v>0</v>
+        <v>-9.4700000000000003E-4</v>
       </c>
       <c r="D84" s="1">
-        <v>0</v>
+        <v>1.495E-3</v>
       </c>
       <c r="E84" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F84" s="1" t="e">
+        <v>1.769698844436533E-3</v>
+      </c>
+      <c r="F84" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>2.1354452838191289</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
@@ -4902,18 +4902,18 @@
         <v>83</v>
       </c>
       <c r="C85" s="1">
-        <v>0</v>
+        <v>1.3370000000000001E-3</v>
       </c>
       <c r="D85" s="1">
-        <v>0</v>
+        <v>-2.1700000000000001E-3</v>
       </c>
       <c r="E85" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F85" s="1" t="e">
+        <v>2.5488171766527312E-3</v>
+      </c>
+      <c r="F85" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>-1.0186015818142704</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
@@ -4921,18 +4921,18 @@
         <v>84</v>
       </c>
       <c r="C86" s="1">
-        <v>0</v>
+        <v>-1.6559999999999999E-3</v>
       </c>
       <c r="D86" s="1">
-        <v>0</v>
+        <v>2.7620000000000001E-3</v>
       </c>
       <c r="E86" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F86" s="1" t="e">
+        <v>3.2204005961991747E-3</v>
+      </c>
+      <c r="F86" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>2.1108963042304709</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
@@ -4940,18 +4940,18 @@
         <v>85</v>
       </c>
       <c r="C87" s="1">
-        <v>0</v>
+        <v>1.8929999999999999E-3</v>
       </c>
       <c r="D87" s="1">
-        <v>0</v>
+        <v>-3.248E-3</v>
       </c>
       <c r="E87" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F87" s="1" t="e">
+        <v>3.759381997084095E-3</v>
+      </c>
+      <c r="F87" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>-1.0431048220379486</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -4959,18 +4959,18 @@
         <v>86</v>
       </c>
       <c r="C88" s="1">
-        <v>0</v>
+        <v>-2.0439999999999998E-3</v>
       </c>
       <c r="D88" s="1">
-        <v>0</v>
+        <v>3.6089999999999998E-3</v>
       </c>
       <c r="E88" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F88" s="1" t="e">
+        <v>4.1476278762685543E-3</v>
+      </c>
+      <c r="F88" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>2.0861145940714207</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -4978,18 +4978,18 @@
         <v>87</v>
       </c>
       <c r="C89" s="1">
-        <v>0</v>
+        <v>2.1090000000000002E-3</v>
       </c>
       <c r="D89" s="1">
-        <v>0</v>
+        <v>-3.8310000000000002E-3</v>
       </c>
       <c r="E89" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F89" s="1" t="e">
+        <v>4.3731501231949492E-3</v>
+      </c>
+      <c r="F89" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>-1.0675624087069207</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -4997,18 +4997,18 @@
         <v>88</v>
       </c>
       <c r="C90" s="1">
-        <v>0</v>
+        <v>-2.088E-3</v>
       </c>
       <c r="D90" s="1">
-        <v>0</v>
+        <v>3.9060000000000002E-3</v>
       </c>
       <c r="E90" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F90" s="1" t="e">
+        <v>4.4290608485321129E-3</v>
+      </c>
+      <c r="F90" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>2.061709904251297</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -5016,18 +5016,18 @@
         <v>89</v>
       </c>
       <c r="C91" s="1">
-        <v>0</v>
+        <v>1.9880000000000002E-3</v>
       </c>
       <c r="D91" s="1">
-        <v>0</v>
+        <v>-3.8310000000000002E-3</v>
       </c>
       <c r="E91" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F91" s="1" t="e">
+        <v>4.3160983538376415E-3</v>
+      </c>
+      <c r="F91" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>-1.0921239417442616</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -5035,18 +5035,18 @@
         <v>90</v>
       </c>
       <c r="C92" s="1">
-        <v>0</v>
+        <v>-1.817E-3</v>
       </c>
       <c r="D92" s="1">
-        <v>0</v>
+        <v>3.6089999999999998E-3</v>
       </c>
       <c r="E92" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F92" s="1" t="e">
+        <v>4.0405903034086491E-3</v>
+      </c>
+      <c r="F92" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>2.0372109458894596</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -5054,18 +5054,18 @@
         <v>91</v>
       </c>
       <c r="C93" s="1">
-        <v>0</v>
+        <v>1.585E-3</v>
       </c>
       <c r="D93" s="1">
-        <v>0</v>
+        <v>-3.248E-3</v>
       </c>
       <c r="E93" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F93" s="1" t="e">
+        <v>3.6141014097559577E-3</v>
+      </c>
+      <c r="F93" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>-1.1168006888138651</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -5073,18 +5073,18 @@
         <v>92</v>
       </c>
       <c r="C94" s="1">
-        <v>0</v>
+        <v>-1.3060000000000001E-3</v>
       </c>
       <c r="D94" s="1">
-        <v>0</v>
+        <v>2.7620000000000001E-3</v>
       </c>
       <c r="E94" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F94" s="1" t="e">
+        <v>3.0552053940774587E-3</v>
+      </c>
+      <c r="F94" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>2.0124855330647398</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -5092,18 +5092,18 @@
         <v>93</v>
       </c>
       <c r="C95" s="1">
-        <v>0</v>
+        <v>9.9400000000000009E-4</v>
       </c>
       <c r="D95" s="1">
-        <v>0</v>
+        <v>-2.1700000000000001E-3</v>
       </c>
       <c r="E95" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F95" s="1" t="e">
+        <v>2.3868255068186278E-3</v>
+      </c>
+      <c r="F95" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>-1.1412562205450303</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
@@ -5111,18 +5111,18 @@
         <v>94</v>
       </c>
       <c r="C96" s="1">
-        <v>0</v>
+        <v>-6.6299999999999996E-4</v>
       </c>
       <c r="D96" s="1">
-        <v>0</v>
+        <v>1.495E-3</v>
       </c>
       <c r="E96" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F96" s="1" t="e">
+        <v>1.635418600848113E-3</v>
+      </c>
+      <c r="F96" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>1.9882135540473604</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
@@ -5130,18 +5130,18 @@
         <v>95</v>
       </c>
       <c r="C97" s="1">
-        <v>0</v>
+        <v>3.2699999999999998E-4</v>
       </c>
       <c r="D97" s="1">
-        <v>0</v>
+        <v>-7.6199999999999998E-4</v>
       </c>
       <c r="E97" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F97" s="1" t="e">
+        <v>8.2920021707667195E-4</v>
+      </c>
+      <c r="F97" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>-1.1654294811631278</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
@@ -5168,18 +5168,18 @@
         <v>97</v>
       </c>
       <c r="C99" s="1">
-        <v>0</v>
+        <v>-3.0499999999999999E-4</v>
       </c>
       <c r="D99" s="1">
-        <v>0</v>
+        <v>7.6199999999999998E-4</v>
       </c>
       <c r="E99" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F99" s="1" t="e">
+        <v>8.2077341574882882E-4</v>
+      </c>
+      <c r="F99" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>1.9515289482472926</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
@@ -5187,18 +5187,18 @@
         <v>98</v>
       </c>
       <c r="C100" s="1">
-        <v>0</v>
+        <v>5.7700000000000004E-4</v>
       </c>
       <c r="D100" s="1">
-        <v>0</v>
+        <v>-1.495E-3</v>
       </c>
       <c r="E100" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F100" s="1" t="e">
+        <v>1.6024836972649676E-3</v>
+      </c>
+      <c r="F100" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>-1.2024576189515912</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
@@ -5206,18 +5206,18 @@
         <v>99</v>
       </c>
       <c r="C101" s="1">
-        <v>0</v>
+        <v>-8.0699999999999999E-4</v>
       </c>
       <c r="D101" s="1">
-        <v>0</v>
+        <v>2.1700000000000001E-3</v>
       </c>
       <c r="E101" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F101" s="1" t="e">
+        <v>2.3151995594332684E-3</v>
+      </c>
+      <c r="F101" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>1.9268371115258609</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
@@ -5225,18 +5225,18 @@
         <v>100</v>
       </c>
       <c r="C102" s="1">
-        <v>0</v>
+        <v>9.8799999999999995E-4</v>
       </c>
       <c r="D102" s="1">
-        <v>0</v>
+        <v>-2.7620000000000001E-3</v>
       </c>
       <c r="E102" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F102" s="1" t="e">
+        <v>2.933391893354858E-3</v>
+      </c>
+      <c r="F102" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>-1.2272678918288447</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
@@ -5244,18 +5244,18 @@
         <v>101</v>
       </c>
       <c r="C103" s="1">
-        <v>0</v>
+        <v>-1.1169999999999999E-3</v>
       </c>
       <c r="D103" s="1">
-        <v>0</v>
+        <v>3.248E-3</v>
       </c>
       <c r="E103" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F103" s="1" t="e">
+        <v>3.4347042085163607E-3</v>
+      </c>
+      <c r="F103" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>1.9020300698808885</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
@@ -5263,18 +5263,18 @@
         <v>102</v>
       </c>
       <c r="C104" s="1">
-        <v>0</v>
+        <v>1.1919999999999999E-3</v>
       </c>
       <c r="D104" s="1">
-        <v>0</v>
+        <v>-3.6089999999999998E-3</v>
       </c>
       <c r="E104" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F104" s="1" t="e">
+        <v>3.8007558458811848E-3</v>
+      </c>
+      <c r="F104" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>-1.2517914182153504</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
@@ -5282,18 +5282,18 @@
         <v>103</v>
       </c>
       <c r="C105" s="1">
-        <v>0</v>
+        <v>-1.214E-3</v>
       </c>
       <c r="D105" s="1">
-        <v>0</v>
+        <v>3.8310000000000002E-3</v>
       </c>
       <c r="E105" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F105" s="1" t="e">
+        <v>4.0187506765162733E-3</v>
+      </c>
+      <c r="F105" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>1.8776742861992235</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
@@ -5301,18 +5301,18 @@
         <v>104</v>
       </c>
       <c r="C106" s="1">
-        <v>0</v>
+        <v>1.1850000000000001E-3</v>
       </c>
       <c r="D106" s="1">
-        <v>0</v>
+        <v>-3.9060000000000002E-3</v>
       </c>
       <c r="E106" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F106" s="1" t="e">
+        <v>4.0817962957501938E-3</v>
+      </c>
+      <c r="F106" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>-1.2762420413433369</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
@@ -5320,18 +5320,18 @@
         <v>105</v>
       </c>
       <c r="C107" s="1">
-        <v>0</v>
+        <v>-1.111E-3</v>
       </c>
       <c r="D107" s="1">
-        <v>0</v>
+        <v>3.8310000000000002E-3</v>
       </c>
       <c r="E107" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F107" s="1" t="e">
+        <v>3.9888446948960045E-3</v>
+      </c>
+      <c r="F107" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>1.8530561565641364</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
@@ -5339,18 +5339,18 @@
         <v>106</v>
       </c>
       <c r="C108" s="1">
-        <v>0</v>
+        <v>9.990000000000001E-4</v>
       </c>
       <c r="D108" s="1">
-        <v>0</v>
+        <v>-3.6089999999999998E-3</v>
       </c>
       <c r="E108" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F108" s="1" t="e">
+        <v>3.7447138742499404E-3</v>
+      </c>
+      <c r="F108" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>-1.3007500294099916</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
@@ -5358,18 +5358,18 @@
         <v>107</v>
       </c>
       <c r="C109" s="1">
-        <v>0</v>
+        <v>-8.5599999999999999E-4</v>
       </c>
       <c r="D109" s="1">
-        <v>0</v>
+        <v>3.248E-3</v>
       </c>
       <c r="E109" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F109" s="1" t="e">
+        <v>3.3589045833426114E-3</v>
+      </c>
+      <c r="F109" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>1.8284837221960659</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
@@ -5377,18 +5377,18 @@
         <v>108</v>
       </c>
       <c r="C110" s="1">
-        <v>0</v>
+        <v>6.9200000000000002E-4</v>
       </c>
       <c r="D110" s="1">
-        <v>0</v>
+        <v>-2.7620000000000001E-3</v>
       </c>
       <c r="E110" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F110" s="1" t="e">
+        <v>2.8473686097869378E-3</v>
+      </c>
+      <c r="F110" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>-1.3253065904586963</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
@@ -5396,18 +5396,18 @@
         <v>109</v>
       </c>
       <c r="C111" s="1">
-        <v>0</v>
+        <v>-5.1500000000000005E-4</v>
       </c>
       <c r="D111" s="1">
-        <v>0</v>
+        <v>2.1700000000000001E-3</v>
       </c>
       <c r="E111" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F111" s="1" t="e">
+        <v>2.2302746467643846E-3</v>
+      </c>
+      <c r="F111" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>1.8038125371822458</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
@@ -5415,18 +5415,18 @@
         <v>110</v>
       </c>
       <c r="C112" s="1">
-        <v>0</v>
+        <v>3.3599999999999998E-4</v>
       </c>
       <c r="D112" s="1">
-        <v>0</v>
+        <v>-1.495E-3</v>
       </c>
       <c r="E112" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F112" s="1" t="e">
+        <v>1.5322927266028512E-3</v>
+      </c>
+      <c r="F112" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>-1.3497206466990308</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
@@ -5434,18 +5434,18 @@
         <v>111</v>
       </c>
       <c r="C113" s="1">
-        <v>0</v>
+        <v>-1.6100000000000001E-4</v>
       </c>
       <c r="D113" s="1">
-        <v>0</v>
+        <v>7.6199999999999998E-4</v>
       </c>
       <c r="E113" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F113" s="1" t="e">
+        <v>7.7882282966025074E-4</v>
+      </c>
+      <c r="F113" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>1.7790199701101308</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
@@ -5472,18 +5472,18 @@
         <v>113</v>
       </c>
       <c r="C115" s="1">
-        <v>0</v>
+        <v>1.4200000000000001E-4</v>
       </c>
       <c r="D115" s="1">
-        <v>0</v>
+        <v>-7.6199999999999998E-4</v>
       </c>
       <c r="E115" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F115" s="1" t="e">
+        <v>7.7511805552444712E-4</v>
+      </c>
+      <c r="F115" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>-1.3865579024177717</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
@@ -5491,18 +5491,18 @@
         <v>114</v>
       </c>
       <c r="C116" s="1">
-        <v>0</v>
+        <v>-2.5900000000000001E-4</v>
       </c>
       <c r="D116" s="1">
-        <v>0</v>
+        <v>1.495E-3</v>
       </c>
       <c r="E116" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F116" s="1" t="e">
+        <v>1.5172692575808687E-3</v>
+      </c>
+      <c r="F116" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>1.7423378090921082</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
@@ -5510,18 +5510,18 @@
         <v>115</v>
       </c>
       <c r="C117" s="1">
-        <v>0</v>
+        <v>3.4900000000000003E-4</v>
       </c>
       <c r="D117" s="1">
-        <v>0</v>
+        <v>-2.1700000000000001E-3</v>
       </c>
       <c r="E117" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F117" s="1" t="e">
+        <v>2.1978855748195809E-3</v>
+      </c>
+      <c r="F117" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>-1.411332381321458</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
@@ -5529,18 +5529,18 @@
         <v>116</v>
       </c>
       <c r="C118" s="1">
-        <v>0</v>
+        <v>-4.0999999999999999E-4</v>
       </c>
       <c r="D118" s="1">
-        <v>0</v>
+        <v>2.7620000000000001E-3</v>
       </c>
       <c r="E118" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F118" s="1" t="e">
+        <v>2.7922650304009469E-3</v>
+      </c>
+      <c r="F118" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>1.718163343051236</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
@@ -5548,18 +5548,18 @@
         <v>117</v>
       </c>
       <c r="C119" s="1">
-        <v>0</v>
+        <v>4.4099999999999999E-4</v>
       </c>
       <c r="D119" s="1">
-        <v>0</v>
+        <v>-3.248E-3</v>
       </c>
       <c r="E119" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F119" s="1" t="e">
+        <v>3.2778018549021537E-3</v>
+      </c>
+      <c r="F119" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>-1.4358457022903939</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
@@ -5567,18 +5567,18 @@
         <v>118</v>
       </c>
       <c r="C120" s="1">
-        <v>0</v>
+        <v>-4.4499999999999997E-4</v>
       </c>
       <c r="D120" s="1">
-        <v>0</v>
+        <v>3.6089999999999998E-3</v>
       </c>
       <c r="E120" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F120" s="1" t="e">
+        <v>3.6363313930388688E-3</v>
+      </c>
+      <c r="F120" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>1.6934799376948848</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
@@ -5586,18 +5586,18 @@
         <v>119</v>
       </c>
       <c r="C121" s="1">
-        <v>0</v>
+        <v>4.2499999999999998E-4</v>
       </c>
       <c r="D121" s="1">
-        <v>0</v>
+        <v>-3.8310000000000002E-3</v>
       </c>
       <c r="E121" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F121" s="1" t="e">
+        <v>3.8545020430660044E-3</v>
+      </c>
+      <c r="F121" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>-1.4603110056880679</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
@@ -5605,18 +5605,18 @@
         <v>120</v>
       </c>
       <c r="C122" s="1">
-        <v>0</v>
+        <v>-3.8499999999999998E-4</v>
       </c>
       <c r="D122" s="1">
-        <v>0</v>
+        <v>3.9060000000000002E-3</v>
       </c>
       <c r="E122" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F122" s="1" t="e">
+        <v>3.9249281522086496E-3</v>
+      </c>
+      <c r="F122" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>1.6690452819257702</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
@@ -5624,18 +5624,18 @@
         <v>121</v>
       </c>
       <c r="C123" s="1">
-        <v>0</v>
+        <v>3.3E-4</v>
       </c>
       <c r="D123" s="1">
-        <v>0</v>
+        <v>-3.8310000000000002E-3</v>
       </c>
       <c r="E123" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F123" s="1" t="e">
+        <v>3.845186731486522E-3</v>
+      </c>
+      <c r="F123" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>-1.4848690453571762</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
@@ -5643,18 +5643,18 @@
         <v>122</v>
       </c>
       <c r="C124" s="1">
-        <v>0</v>
+        <v>-2.6600000000000001E-4</v>
       </c>
       <c r="D124" s="1">
-        <v>0</v>
+        <v>3.6089999999999998E-3</v>
       </c>
       <c r="E124" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F124" s="1" t="e">
+        <v>3.6187894384724847E-3</v>
+      </c>
+      <c r="F124" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>1.644367923795732</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
@@ -5662,18 +5662,18 @@
         <v>123</v>
       </c>
       <c r="C125" s="1">
-        <v>0</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="D125" s="1">
-        <v>0</v>
+        <v>-3.248E-3</v>
       </c>
       <c r="E125" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F125" s="1" t="e">
+        <v>3.2541518096118379E-3</v>
+      </c>
+      <c r="F125" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>-1.5092976208177733</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
@@ -5681,18 +5681,18 @@
         <v>124</v>
       </c>
       <c r="C126" s="1">
-        <v>0</v>
+        <v>-1.36E-4</v>
       </c>
       <c r="D126" s="1">
-        <v>0</v>
+        <v>2.7620000000000001E-3</v>
       </c>
       <c r="E126" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F126" s="1" t="e">
+        <v>2.7653462712651376E-3</v>
+      </c>
+      <c r="F126" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>1.6199962713476228</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
@@ -5700,18 +5700,18 @@
         <v>125</v>
       </c>
       <c r="C127" s="1">
-        <v>0</v>
+        <v>8.0000000000000007E-5</v>
       </c>
       <c r="D127" s="1">
-        <v>0</v>
+        <v>-2.1700000000000001E-3</v>
       </c>
       <c r="E127" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F127" s="1" t="e">
+        <v>2.1714741536569115E-3</v>
+      </c>
+      <c r="F127" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>-1.5339466557804036</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
@@ -5719,18 +5719,18 @@
         <v>126</v>
       </c>
       <c r="C128" s="1">
-        <v>0</v>
+        <v>-3.6999999999999998E-5</v>
       </c>
       <c r="D128" s="1">
-        <v>0</v>
+        <v>1.495E-3</v>
       </c>
       <c r="E128" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F128" s="1" t="e">
+        <v>1.4954577894410795E-3</v>
+      </c>
+      <c r="F128" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>1.5955404394023054</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
@@ -5738,18 +5738,18 @@
         <v>127</v>
       </c>
       <c r="C129" s="1">
-        <v>0</v>
+        <v>9.0000000000000002E-6</v>
       </c>
       <c r="D129" s="1">
-        <v>0</v>
+        <v>-7.6199999999999998E-4</v>
       </c>
       <c r="E129" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F129" s="1" t="e">
+        <v>7.6205314775283227E-4</v>
+      </c>
+      <c r="F129" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>-1.5589858523405815</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
@@ -5776,18 +5776,18 @@
         <v>129</v>
       </c>
       <c r="C131" s="1">
-        <v>0</v>
+        <v>9.0000000000000002E-6</v>
       </c>
       <c r="D131" s="1">
-        <v>0</v>
+        <v>7.6199999999999998E-4</v>
       </c>
       <c r="E131" s="1">
         <f t="shared" ref="E131:E194" si="4">SQRT(POWER(C131,2)+POWER(D131,2))</f>
-        <v>0</v>
-      </c>
-      <c r="F131" s="1" t="e">
+        <v>7.6205314775283227E-4</v>
+      </c>
+      <c r="F131" s="1">
         <f t="shared" ref="F131:F194" si="5">ATAN2(C131,D131)</f>
-        <v>#DIV/0!</v>
+        <v>1.5589858523405815</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
@@ -5795,18 +5795,18 @@
         <v>130</v>
       </c>
       <c r="C132" s="1">
-        <v>0</v>
+        <v>-3.6999999999999998E-5</v>
       </c>
       <c r="D132" s="1">
-        <v>0</v>
+        <v>-1.495E-3</v>
       </c>
       <c r="E132" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F132" s="1" t="e">
+        <v>1.4954577894410795E-3</v>
+      </c>
+      <c r="F132" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>-1.5955404394023054</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
@@ -5814,18 +5814,18 @@
         <v>131</v>
       </c>
       <c r="C133" s="1">
-        <v>0</v>
+        <v>8.0000000000000007E-5</v>
       </c>
       <c r="D133" s="1">
-        <v>0</v>
+        <v>2.1700000000000001E-3</v>
       </c>
       <c r="E133" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F133" s="1" t="e">
+        <v>2.1714741536569115E-3</v>
+      </c>
+      <c r="F133" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>1.5339466557804036</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
@@ -5833,18 +5833,18 @@
         <v>132</v>
       </c>
       <c r="C134" s="1">
-        <v>0</v>
+        <v>-1.36E-4</v>
       </c>
       <c r="D134" s="1">
-        <v>0</v>
+        <v>-2.7620000000000001E-3</v>
       </c>
       <c r="E134" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F134" s="1" t="e">
+        <v>2.7653462712651376E-3</v>
+      </c>
+      <c r="F134" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>-1.6199962713476228</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
@@ -5852,18 +5852,18 @@
         <v>133</v>
       </c>
       <c r="C135" s="1">
-        <v>0</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="D135" s="1">
-        <v>0</v>
+        <v>3.248E-3</v>
       </c>
       <c r="E135" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F135" s="1" t="e">
+        <v>3.2541518096118379E-3</v>
+      </c>
+      <c r="F135" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>1.5092976208177733</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
@@ -5871,18 +5871,18 @@
         <v>134</v>
       </c>
       <c r="C136" s="1">
-        <v>0</v>
+        <v>-2.6600000000000001E-4</v>
       </c>
       <c r="D136" s="1">
-        <v>0</v>
+        <v>-3.6089999999999998E-3</v>
       </c>
       <c r="E136" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F136" s="1" t="e">
+        <v>3.6187894384724847E-3</v>
+      </c>
+      <c r="F136" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>-1.644367923795732</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
@@ -5890,18 +5890,18 @@
         <v>135</v>
       </c>
       <c r="C137" s="1">
-        <v>0</v>
+        <v>3.3E-4</v>
       </c>
       <c r="D137" s="1">
-        <v>0</v>
+        <v>3.8310000000000002E-3</v>
       </c>
       <c r="E137" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F137" s="1" t="e">
+        <v>3.845186731486522E-3</v>
+      </c>
+      <c r="F137" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>1.4848690453571762</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
@@ -5909,18 +5909,18 @@
         <v>136</v>
       </c>
       <c r="C138" s="1">
-        <v>0</v>
+        <v>-3.8499999999999998E-4</v>
       </c>
       <c r="D138" s="1">
-        <v>0</v>
+        <v>-3.9060000000000002E-3</v>
       </c>
       <c r="E138" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F138" s="1" t="e">
+        <v>3.9249281522086496E-3</v>
+      </c>
+      <c r="F138" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>-1.6690452819257702</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
@@ -5928,18 +5928,18 @@
         <v>137</v>
       </c>
       <c r="C139" s="1">
-        <v>0</v>
+        <v>4.2499999999999998E-4</v>
       </c>
       <c r="D139" s="1">
-        <v>0</v>
+        <v>3.8310000000000002E-3</v>
       </c>
       <c r="E139" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F139" s="1" t="e">
+        <v>3.8545020430660044E-3</v>
+      </c>
+      <c r="F139" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>1.4603110056880679</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
@@ -5947,18 +5947,18 @@
         <v>138</v>
       </c>
       <c r="C140" s="1">
-        <v>0</v>
+        <v>-4.4499999999999997E-4</v>
       </c>
       <c r="D140" s="1">
-        <v>0</v>
+        <v>-3.6089999999999998E-3</v>
       </c>
       <c r="E140" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F140" s="1" t="e">
+        <v>3.6363313930388688E-3</v>
+      </c>
+      <c r="F140" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>-1.6934799376948848</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
@@ -5966,18 +5966,18 @@
         <v>139</v>
       </c>
       <c r="C141" s="1">
-        <v>0</v>
+        <v>4.4099999999999999E-4</v>
       </c>
       <c r="D141" s="1">
-        <v>0</v>
+        <v>3.248E-3</v>
       </c>
       <c r="E141" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F141" s="1" t="e">
+        <v>3.2778018549021537E-3</v>
+      </c>
+      <c r="F141" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>1.4358457022903939</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
@@ -5985,18 +5985,18 @@
         <v>140</v>
       </c>
       <c r="C142" s="1">
-        <v>0</v>
+        <v>-4.0999999999999999E-4</v>
       </c>
       <c r="D142" s="1">
-        <v>0</v>
+        <v>-2.7620000000000001E-3</v>
       </c>
       <c r="E142" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F142" s="1" t="e">
+        <v>2.7922650304009469E-3</v>
+      </c>
+      <c r="F142" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>-1.718163343051236</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
@@ -6004,18 +6004,18 @@
         <v>141</v>
       </c>
       <c r="C143" s="1">
-        <v>0</v>
+        <v>3.4900000000000003E-4</v>
       </c>
       <c r="D143" s="1">
-        <v>0</v>
+        <v>2.1700000000000001E-3</v>
       </c>
       <c r="E143" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F143" s="1" t="e">
+        <v>2.1978855748195809E-3</v>
+      </c>
+      <c r="F143" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>1.411332381321458</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
@@ -6023,18 +6023,18 @@
         <v>142</v>
       </c>
       <c r="C144" s="1">
-        <v>0</v>
+        <v>-2.5900000000000001E-4</v>
       </c>
       <c r="D144" s="1">
-        <v>0</v>
+        <v>-1.495E-3</v>
       </c>
       <c r="E144" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F144" s="1" t="e">
+        <v>1.5172692575808687E-3</v>
+      </c>
+      <c r="F144" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>-1.7423378090921082</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
@@ -6042,18 +6042,18 @@
         <v>143</v>
       </c>
       <c r="C145" s="1">
-        <v>0</v>
+        <v>1.4200000000000001E-4</v>
       </c>
       <c r="D145" s="1">
-        <v>0</v>
+        <v>7.6199999999999998E-4</v>
       </c>
       <c r="E145" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F145" s="1" t="e">
+        <v>7.7511805552444712E-4</v>
+      </c>
+      <c r="F145" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>1.3865579024177717</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
@@ -6080,18 +6080,18 @@
         <v>145</v>
       </c>
       <c r="C147" s="1">
-        <v>0</v>
+        <v>-1.6100000000000001E-4</v>
       </c>
       <c r="D147" s="1">
-        <v>0</v>
+        <v>-7.6199999999999998E-4</v>
       </c>
       <c r="E147" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F147" s="1" t="e">
+        <v>7.7882282966025074E-4</v>
+      </c>
+      <c r="F147" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>-1.7790199701101308</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
@@ -6099,18 +6099,18 @@
         <v>146</v>
       </c>
       <c r="C148" s="1">
-        <v>0</v>
+        <v>3.3599999999999998E-4</v>
       </c>
       <c r="D148" s="1">
-        <v>0</v>
+        <v>1.495E-3</v>
       </c>
       <c r="E148" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F148" s="1" t="e">
+        <v>1.5322927266028512E-3</v>
+      </c>
+      <c r="F148" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>1.3497206466990308</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
@@ -6118,18 +6118,18 @@
         <v>147</v>
       </c>
       <c r="C149" s="1">
-        <v>0</v>
+        <v>-5.1500000000000005E-4</v>
       </c>
       <c r="D149" s="1">
-        <v>0</v>
+        <v>-2.1700000000000001E-3</v>
       </c>
       <c r="E149" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F149" s="1" t="e">
+        <v>2.2302746467643846E-3</v>
+      </c>
+      <c r="F149" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>-1.8038125371822458</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
@@ -6137,18 +6137,18 @@
         <v>148</v>
       </c>
       <c r="C150" s="1">
-        <v>0</v>
+        <v>6.9200000000000002E-4</v>
       </c>
       <c r="D150" s="1">
-        <v>0</v>
+        <v>2.7620000000000001E-3</v>
       </c>
       <c r="E150" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F150" s="1" t="e">
+        <v>2.8473686097869378E-3</v>
+      </c>
+      <c r="F150" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>1.3253065904586963</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
@@ -6156,18 +6156,18 @@
         <v>149</v>
       </c>
       <c r="C151" s="1">
-        <v>0</v>
+        <v>-8.5599999999999999E-4</v>
       </c>
       <c r="D151" s="1">
-        <v>0</v>
+        <v>-3.248E-3</v>
       </c>
       <c r="E151" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F151" s="1" t="e">
+        <v>3.3589045833426114E-3</v>
+      </c>
+      <c r="F151" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>-1.8284837221960659</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
@@ -6175,18 +6175,18 @@
         <v>150</v>
       </c>
       <c r="C152" s="1">
-        <v>0</v>
+        <v>9.990000000000001E-4</v>
       </c>
       <c r="D152" s="1">
-        <v>0</v>
+        <v>3.6089999999999998E-3</v>
       </c>
       <c r="E152" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F152" s="1" t="e">
+        <v>3.7447138742499404E-3</v>
+      </c>
+      <c r="F152" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>1.3007500294099916</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
@@ -6194,18 +6194,18 @@
         <v>151</v>
       </c>
       <c r="C153" s="1">
-        <v>0</v>
+        <v>-1.111E-3</v>
       </c>
       <c r="D153" s="1">
-        <v>0</v>
+        <v>-3.8310000000000002E-3</v>
       </c>
       <c r="E153" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F153" s="1" t="e">
+        <v>3.9888446948960045E-3</v>
+      </c>
+      <c r="F153" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>-1.8530561565641364</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
@@ -6213,18 +6213,18 @@
         <v>152</v>
       </c>
       <c r="C154" s="1">
-        <v>0</v>
+        <v>1.1850000000000001E-3</v>
       </c>
       <c r="D154" s="1">
-        <v>0</v>
+        <v>3.9060000000000002E-3</v>
       </c>
       <c r="E154" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F154" s="1" t="e">
+        <v>4.0817962957501938E-3</v>
+      </c>
+      <c r="F154" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>1.2762420413433369</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
@@ -6232,18 +6232,18 @@
         <v>153</v>
       </c>
       <c r="C155" s="1">
-        <v>0</v>
+        <v>-1.214E-3</v>
       </c>
       <c r="D155" s="1">
-        <v>0</v>
+        <v>-3.8310000000000002E-3</v>
       </c>
       <c r="E155" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F155" s="1" t="e">
+        <v>4.0187506765162733E-3</v>
+      </c>
+      <c r="F155" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>-1.8776742861992235</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
@@ -6251,18 +6251,18 @@
         <v>154</v>
       </c>
       <c r="C156" s="1">
-        <v>0</v>
+        <v>1.1919999999999999E-3</v>
       </c>
       <c r="D156" s="1">
-        <v>0</v>
+        <v>3.6089999999999998E-3</v>
       </c>
       <c r="E156" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F156" s="1" t="e">
+        <v>3.8007558458811848E-3</v>
+      </c>
+      <c r="F156" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>1.2517914182153504</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
@@ -6270,18 +6270,18 @@
         <v>155</v>
       </c>
       <c r="C157" s="1">
-        <v>0</v>
+        <v>-1.1169999999999999E-3</v>
       </c>
       <c r="D157" s="1">
-        <v>0</v>
+        <v>-3.248E-3</v>
       </c>
       <c r="E157" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F157" s="1" t="e">
+        <v>3.4347042085163607E-3</v>
+      </c>
+      <c r="F157" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>-1.9020300698808885</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
@@ -6289,18 +6289,18 @@
         <v>156</v>
       </c>
       <c r="C158" s="1">
-        <v>0</v>
+        <v>9.8799999999999995E-4</v>
       </c>
       <c r="D158" s="1">
-        <v>0</v>
+        <v>2.7620000000000001E-3</v>
       </c>
       <c r="E158" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F158" s="1" t="e">
+        <v>2.933391893354858E-3</v>
+      </c>
+      <c r="F158" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>1.2272678918288447</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
@@ -6308,18 +6308,18 @@
         <v>157</v>
       </c>
       <c r="C159" s="1">
-        <v>0</v>
+        <v>-8.0699999999999999E-4</v>
       </c>
       <c r="D159" s="1">
-        <v>0</v>
+        <v>-2.1700000000000001E-3</v>
       </c>
       <c r="E159" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F159" s="1" t="e">
+        <v>2.3151995594332684E-3</v>
+      </c>
+      <c r="F159" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>-1.9268371115258609</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
@@ -6327,18 +6327,18 @@
         <v>158</v>
       </c>
       <c r="C160" s="1">
-        <v>0</v>
+        <v>5.7700000000000004E-4</v>
       </c>
       <c r="D160" s="1">
-        <v>0</v>
+        <v>1.495E-3</v>
       </c>
       <c r="E160" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F160" s="1" t="e">
+        <v>1.6024836972649676E-3</v>
+      </c>
+      <c r="F160" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>1.2024576189515912</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
@@ -6346,18 +6346,18 @@
         <v>159</v>
       </c>
       <c r="C161" s="1">
-        <v>0</v>
+        <v>-3.0499999999999999E-4</v>
       </c>
       <c r="D161" s="1">
-        <v>0</v>
+        <v>-7.6199999999999998E-4</v>
       </c>
       <c r="E161" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F161" s="1" t="e">
+        <v>8.2077341574882882E-4</v>
+      </c>
+      <c r="F161" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>-1.9515289482472926</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
@@ -6384,18 +6384,18 @@
         <v>161</v>
       </c>
       <c r="C163" s="1">
-        <v>0</v>
+        <v>3.2699999999999998E-4</v>
       </c>
       <c r="D163" s="1">
-        <v>0</v>
+        <v>7.6199999999999998E-4</v>
       </c>
       <c r="E163" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F163" s="1" t="e">
+        <v>8.2920021707667195E-4</v>
+      </c>
+      <c r="F163" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>1.1654294811631278</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
@@ -6403,18 +6403,18 @@
         <v>162</v>
       </c>
       <c r="C164" s="1">
-        <v>0</v>
+        <v>-6.6299999999999996E-4</v>
       </c>
       <c r="D164" s="1">
-        <v>0</v>
+        <v>-1.495E-3</v>
       </c>
       <c r="E164" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F164" s="1" t="e">
+        <v>1.635418600848113E-3</v>
+      </c>
+      <c r="F164" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>-1.9882135540473604</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
@@ -6422,18 +6422,18 @@
         <v>163</v>
       </c>
       <c r="C165" s="1">
-        <v>0</v>
+        <v>9.9400000000000009E-4</v>
       </c>
       <c r="D165" s="1">
-        <v>0</v>
+        <v>2.1700000000000001E-3</v>
       </c>
       <c r="E165" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F165" s="1" t="e">
+        <v>2.3868255068186278E-3</v>
+      </c>
+      <c r="F165" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>1.1412562205450303</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
@@ -6441,18 +6441,18 @@
         <v>164</v>
       </c>
       <c r="C166" s="1">
-        <v>0</v>
+        <v>-1.3060000000000001E-3</v>
       </c>
       <c r="D166" s="1">
-        <v>0</v>
+        <v>-2.7620000000000001E-3</v>
       </c>
       <c r="E166" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F166" s="1" t="e">
+        <v>3.0552053940774587E-3</v>
+      </c>
+      <c r="F166" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>-2.0124855330647398</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
@@ -6460,18 +6460,18 @@
         <v>165</v>
       </c>
       <c r="C167" s="1">
-        <v>0</v>
+        <v>1.585E-3</v>
       </c>
       <c r="D167" s="1">
-        <v>0</v>
+        <v>3.248E-3</v>
       </c>
       <c r="E167" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F167" s="1" t="e">
+        <v>3.6141014097559577E-3</v>
+      </c>
+      <c r="F167" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>1.1168006888138651</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
@@ -6479,18 +6479,18 @@
         <v>166</v>
       </c>
       <c r="C168" s="1">
-        <v>0</v>
+        <v>-1.817E-3</v>
       </c>
       <c r="D168" s="1">
-        <v>0</v>
+        <v>-3.6089999999999998E-3</v>
       </c>
       <c r="E168" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F168" s="1" t="e">
+        <v>4.0405903034086491E-3</v>
+      </c>
+      <c r="F168" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>-2.0372109458894596</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
@@ -6498,18 +6498,18 @@
         <v>167</v>
       </c>
       <c r="C169" s="1">
-        <v>0</v>
+        <v>1.9880000000000002E-3</v>
       </c>
       <c r="D169" s="1">
-        <v>0</v>
+        <v>3.8310000000000002E-3</v>
       </c>
       <c r="E169" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F169" s="1" t="e">
+        <v>4.3160983538376415E-3</v>
+      </c>
+      <c r="F169" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>1.0921239417442616</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
@@ -6517,18 +6517,18 @@
         <v>168</v>
       </c>
       <c r="C170" s="1">
-        <v>0</v>
+        <v>-2.088E-3</v>
       </c>
       <c r="D170" s="1">
-        <v>0</v>
+        <v>-3.9060000000000002E-3</v>
       </c>
       <c r="E170" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F170" s="1" t="e">
+        <v>4.4290608485321129E-3</v>
+      </c>
+      <c r="F170" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>-2.061709904251297</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
@@ -6536,18 +6536,18 @@
         <v>169</v>
       </c>
       <c r="C171" s="1">
-        <v>0</v>
+        <v>2.1090000000000002E-3</v>
       </c>
       <c r="D171" s="1">
-        <v>0</v>
+        <v>3.8310000000000002E-3</v>
       </c>
       <c r="E171" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F171" s="1" t="e">
+        <v>4.3731501231949492E-3</v>
+      </c>
+      <c r="F171" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>1.0675624087069207</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
@@ -6555,18 +6555,18 @@
         <v>170</v>
       </c>
       <c r="C172" s="1">
-        <v>0</v>
+        <v>-2.0439999999999998E-3</v>
       </c>
       <c r="D172" s="1">
-        <v>0</v>
+        <v>-3.6089999999999998E-3</v>
       </c>
       <c r="E172" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F172" s="1" t="e">
+        <v>4.1476278762685543E-3</v>
+      </c>
+      <c r="F172" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>-2.0861145940714207</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
@@ -6574,18 +6574,18 @@
         <v>171</v>
       </c>
       <c r="C173" s="1">
-        <v>0</v>
+        <v>1.8929999999999999E-3</v>
       </c>
       <c r="D173" s="1">
-        <v>0</v>
+        <v>3.248E-3</v>
       </c>
       <c r="E173" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F173" s="1" t="e">
+        <v>3.759381997084095E-3</v>
+      </c>
+      <c r="F173" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>1.0431048220379486</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
@@ -6593,18 +6593,18 @@
         <v>172</v>
       </c>
       <c r="C174" s="1">
-        <v>0</v>
+        <v>-1.6559999999999999E-3</v>
       </c>
       <c r="D174" s="1">
-        <v>0</v>
+        <v>-2.7620000000000001E-3</v>
       </c>
       <c r="E174" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F174" s="1" t="e">
+        <v>3.2204005961991747E-3</v>
+      </c>
+      <c r="F174" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>-2.1108963042304709</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
@@ -6612,18 +6612,18 @@
         <v>173</v>
       </c>
       <c r="C175" s="1">
-        <v>0</v>
+        <v>1.3370000000000001E-3</v>
       </c>
       <c r="D175" s="1">
-        <v>0</v>
+        <v>2.1700000000000001E-3</v>
       </c>
       <c r="E175" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F175" s="1" t="e">
+        <v>2.5488171766527312E-3</v>
+      </c>
+      <c r="F175" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>1.0186015818142704</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
@@ -6631,18 +6631,18 @@
         <v>174</v>
       </c>
       <c r="C176" s="1">
-        <v>0</v>
+        <v>-9.4700000000000003E-4</v>
       </c>
       <c r="D176" s="1">
-        <v>0</v>
+        <v>-1.495E-3</v>
       </c>
       <c r="E176" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F176" s="1" t="e">
+        <v>1.769698844436533E-3</v>
+      </c>
+      <c r="F176" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>-2.1354452838191289</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
@@ -6650,18 +6650,18 @@
         <v>175</v>
       </c>
       <c r="C177" s="1">
-        <v>0</v>
+        <v>4.9600000000000002E-4</v>
       </c>
       <c r="D177" s="1">
-        <v>0</v>
+        <v>7.6199999999999998E-4</v>
       </c>
       <c r="E177" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F177" s="1" t="e">
+        <v>9.092084469471233E-4</v>
+      </c>
+      <c r="F177" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>0.993775588034429</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
@@ -6688,18 +6688,18 @@
         <v>177</v>
       </c>
       <c r="C179" s="1">
-        <v>0</v>
+        <v>-5.2300000000000003E-4</v>
       </c>
       <c r="D179" s="1">
-        <v>0</v>
+        <v>-7.6199999999999998E-4</v>
       </c>
       <c r="E179" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F179" s="1" t="e">
+        <v>9.2421480187237853E-4</v>
+      </c>
+      <c r="F179" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>-2.1723035114832392</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
@@ -6707,18 +6707,18 @@
         <v>178</v>
       </c>
       <c r="C180" s="1">
-        <v>0</v>
+        <v>1.0529999999999999E-3</v>
       </c>
       <c r="D180" s="1">
-        <v>0</v>
+        <v>1.495E-3</v>
       </c>
       <c r="E180" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F180" s="1" t="e">
+        <v>1.8286153231338732E-3</v>
+      </c>
+      <c r="F180" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>0.9571583147256516</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
@@ -6726,18 +6726,18 @@
         <v>179</v>
       </c>
       <c r="C181" s="1">
-        <v>0</v>
+        <v>-1.5690000000000001E-3</v>
       </c>
       <c r="D181" s="1">
-        <v>0</v>
+        <v>-2.1700000000000001E-3</v>
       </c>
       <c r="E181" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F181" s="1" t="e">
+        <v>2.6778089924413954E-3</v>
+      </c>
+      <c r="F181" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>-2.1968195710624192</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
@@ -6745,18 +6745,18 @@
         <v>180</v>
       </c>
       <c r="C182" s="1">
-        <v>0</v>
+        <v>2.049E-3</v>
       </c>
       <c r="D182" s="1">
-        <v>0</v>
+        <v>2.7620000000000001E-3</v>
       </c>
       <c r="E182" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F182" s="1" t="e">
+        <v>3.4390471063944442E-3</v>
+      </c>
+      <c r="F182" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>0.93252924987982144</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
@@ -6764,18 +6764,18 @@
         <v>181</v>
       </c>
       <c r="C183" s="1">
-        <v>0</v>
+        <v>-2.4710000000000001E-3</v>
       </c>
       <c r="D183" s="1">
-        <v>0</v>
+        <v>-3.248E-3</v>
       </c>
       <c r="E183" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F183" s="1" t="e">
+        <v>4.0810960537581075E-3</v>
+      </c>
+      <c r="F183" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>-2.2211583913963859</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
@@ -6783,18 +6783,18 @@
         <v>182</v>
       </c>
       <c r="C184" s="1">
-        <v>0</v>
+        <v>2.8159999999999999E-3</v>
       </c>
       <c r="D184" s="1">
-        <v>0</v>
+        <v>3.6089999999999998E-3</v>
       </c>
       <c r="E184" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F184" s="1" t="e">
+        <v>4.5776344327610958E-3</v>
+      </c>
+      <c r="F184" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>0.9082012269386962</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
@@ -6802,18 +6802,18 @@
         <v>183</v>
       </c>
       <c r="C185" s="1">
-        <v>0</v>
+        <v>-3.0660000000000001E-3</v>
       </c>
       <c r="D185" s="1">
-        <v>0</v>
+        <v>-3.8310000000000002E-3</v>
       </c>
       <c r="E185" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F185" s="1" t="e">
+        <v>4.9068235142503344E-3</v>
+      </c>
+      <c r="F185" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>-2.2457282362652444</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
@@ -6821,18 +6821,18 @@
         <v>184</v>
       </c>
       <c r="C186" s="1">
-        <v>0</v>
+        <v>3.2060000000000001E-3</v>
       </c>
       <c r="D186" s="1">
-        <v>0</v>
+        <v>3.9060000000000002E-3</v>
       </c>
       <c r="E186" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F186" s="1" t="e">
+        <v>5.0532437107268045E-3</v>
+      </c>
+      <c r="F186" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>0.88350736296171961</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
@@ -6840,18 +6840,18 @@
         <v>185</v>
       </c>
       <c r="C187" s="1">
-        <v>0</v>
+        <v>-3.2239999999999999E-3</v>
       </c>
       <c r="D187" s="1">
-        <v>0</v>
+        <v>-3.8310000000000002E-3</v>
       </c>
       <c r="E187" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F187" s="1" t="e">
+        <v>5.0070687033433045E-3</v>
+      </c>
+      <c r="F187" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>-2.2703675833133579</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
@@ -6859,18 +6859,18 @@
         <v>186</v>
       </c>
       <c r="C188" s="1">
-        <v>0</v>
+        <v>3.1129999999999999E-3</v>
       </c>
       <c r="D188" s="1">
-        <v>0</v>
+        <v>3.6089999999999998E-3</v>
       </c>
       <c r="E188" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F188" s="1" t="e">
+        <v>4.7660937884183522E-3</v>
+      </c>
+      <c r="F188" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>0.85905224769681565</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
@@ -6878,18 +6878,18 @@
         <v>187</v>
       </c>
       <c r="C189" s="1">
-        <v>0</v>
+        <v>-2.872E-3</v>
       </c>
       <c r="D189" s="1">
-        <v>0</v>
+        <v>-3.248E-3</v>
       </c>
       <c r="E189" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F189" s="1" t="e">
+        <v>4.3356531226563773E-3</v>
+      </c>
+      <c r="F189" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>-2.2948337086125314</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
@@ -6897,18 +6897,18 @@
         <v>188</v>
       </c>
       <c r="C190" s="1">
-        <v>0</v>
+        <v>2.503E-3</v>
       </c>
       <c r="D190" s="1">
-        <v>0</v>
+        <v>2.7620000000000001E-3</v>
       </c>
       <c r="E190" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F190" s="1" t="e">
+        <v>3.7274190802752513E-3</v>
+      </c>
+      <c r="F190" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>0.83455132241168739</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
@@ -6916,18 +6916,18 @@
         <v>189</v>
       </c>
       <c r="C191" s="1">
-        <v>0</v>
+        <v>-2.016E-3</v>
       </c>
       <c r="D191" s="1">
-        <v>0</v>
+        <v>-2.1700000000000001E-3</v>
       </c>
       <c r="E191" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F191" s="1" t="e">
+        <v>2.9619513838008886E-3</v>
+      </c>
+      <c r="F191" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>-2.319421776589468</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
@@ -6935,18 +6935,18 @@
         <v>190</v>
       </c>
       <c r="C192" s="1">
-        <v>0</v>
+        <v>1.423E-3</v>
       </c>
       <c r="D192" s="1">
-        <v>0</v>
+        <v>1.495E-3</v>
       </c>
       <c r="E192" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F192" s="1" t="e">
+        <v>2.0639656004885353E-3</v>
+      </c>
+      <c r="F192" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>0.81006759227683944</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
@@ -6954,18 +6954,18 @@
         <v>191</v>
       </c>
       <c r="C193" s="1">
-        <v>0</v>
+        <v>-7.4399999999999998E-4</v>
       </c>
       <c r="D193" s="1">
-        <v>0</v>
+        <v>-7.6199999999999998E-4</v>
       </c>
       <c r="E193" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F193" s="1" t="e">
+        <v>1.064978873029883E-3</v>
+      </c>
+      <c r="F193" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>-2.3442428680514364</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
@@ -6992,18 +6992,18 @@
         <v>193</v>
       </c>
       <c r="C195" s="1">
-        <v>0</v>
+        <v>7.8100000000000001E-4</v>
       </c>
       <c r="D195" s="1">
-        <v>0</v>
+        <v>7.6199999999999998E-4</v>
       </c>
       <c r="E195" s="1">
         <f t="shared" ref="E195:E257" si="6">SQRT(POWER(C195,2)+POWER(D195,2))</f>
-        <v>0</v>
-      </c>
-      <c r="F195" s="1" t="e">
+        <v>1.0911484775226513E-3</v>
+      </c>
+      <c r="F195" s="1">
         <f t="shared" ref="F195:F257" si="7">ATAN2(C195,D195)</f>
-        <v>#DIV/0!</v>
+        <v>0.77308511104122113</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
@@ -7011,18 +7011,18 @@
         <v>194</v>
       </c>
       <c r="C196" s="1">
-        <v>0</v>
+        <v>-1.57E-3</v>
       </c>
       <c r="D196" s="1">
-        <v>0</v>
+        <v>-1.495E-3</v>
       </c>
       <c r="E196" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F196" s="1" t="e">
+        <v>2.1679310413387234E-3</v>
+      </c>
+      <c r="F196" s="1">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>-2.3806594285521072</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
@@ -7030,18 +7030,18 @@
         <v>195</v>
       </c>
       <c r="C197" s="1">
-        <v>0</v>
+        <v>2.336E-3</v>
       </c>
       <c r="D197" s="1">
-        <v>0</v>
+        <v>2.1700000000000001E-3</v>
       </c>
       <c r="E197" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F197" s="1" t="e">
+        <v>3.1883845439344355E-3</v>
+      </c>
+      <c r="F197" s="1">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.7485750465688078</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
@@ -7049,18 +7049,18 @@
         <v>196</v>
       </c>
       <c r="C198" s="1">
-        <v>0</v>
+        <v>-3.0479999999999999E-3</v>
       </c>
       <c r="D198" s="1">
-        <v>0</v>
+        <v>-2.7620000000000001E-3</v>
       </c>
       <c r="E198" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F198" s="1" t="e">
+        <v>4.1132648832770298E-3</v>
+      </c>
+      <c r="F198" s="1">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>-2.4053802610315418</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
@@ -7068,18 +7068,18 @@
         <v>197</v>
       </c>
       <c r="C199" s="1">
-        <v>0</v>
+        <v>3.673E-3</v>
       </c>
       <c r="D199" s="1">
-        <v>0</v>
+        <v>3.248E-3</v>
       </c>
       <c r="E199" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F199" s="1" t="e">
+        <v>4.9031044247496913E-3</v>
+      </c>
+      <c r="F199" s="1">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.72406786423002623</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
@@ -7087,18 +7087,18 @@
         <v>198</v>
       </c>
       <c r="C200" s="1">
-        <v>0</v>
+        <v>-4.1840000000000002E-3</v>
       </c>
       <c r="D200" s="1">
-        <v>0</v>
+        <v>-3.6089999999999998E-3</v>
       </c>
       <c r="E200" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F200" s="1" t="e">
+        <v>5.5254626050675612E-3</v>
+      </c>
+      <c r="F200" s="1">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>-2.4298451949424735</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
@@ -7106,18 +7106,18 @@
         <v>199</v>
       </c>
       <c r="C201" s="1">
-        <v>0</v>
+        <v>4.5529999999999998E-3</v>
       </c>
       <c r="D201" s="1">
-        <v>0</v>
+        <v>3.8310000000000002E-3</v>
       </c>
       <c r="E201" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F201" s="1" t="e">
+        <v>5.9503252011969899E-3</v>
+      </c>
+      <c r="F201" s="1">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.69949368975086534</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
@@ -7125,18 +7125,18 @@
         <v>200</v>
       </c>
       <c r="C202" s="1">
-        <v>0</v>
+        <v>-4.7600000000000003E-3</v>
       </c>
       <c r="D202" s="1">
-        <v>0</v>
+        <v>-3.9060000000000002E-3</v>
       </c>
       <c r="E202" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F202" s="1" t="e">
+        <v>6.1574699349651726E-3</v>
+      </c>
+      <c r="F202" s="1">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>-2.454423374041498</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
@@ -7144,18 +7144,18 @@
         <v>201</v>
       </c>
       <c r="C203" s="1">
-        <v>0</v>
+        <v>4.7869999999999996E-3</v>
       </c>
       <c r="D203" s="1">
-        <v>0</v>
+        <v>3.8310000000000002E-3</v>
       </c>
       <c r="E203" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F203" s="1" t="e">
+        <v>6.131225815446696E-3</v>
+      </c>
+      <c r="F203" s="1">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.67491924528592873</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
@@ -7163,18 +7163,18 @@
         <v>202</v>
       </c>
       <c r="C204" s="1">
-        <v>0</v>
+        <v>-4.6239999999999996E-3</v>
       </c>
       <c r="D204" s="1">
-        <v>0</v>
+        <v>-3.6089999999999998E-3</v>
       </c>
       <c r="E204" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F204" s="1" t="e">
+        <v>5.8656847000158469E-3</v>
+      </c>
+      <c r="F204" s="1">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>-2.4788598677820799</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.2">
@@ -7182,18 +7182,18 @@
         <v>203</v>
       </c>
       <c r="C205" s="1">
-        <v>0</v>
+        <v>4.2690000000000002E-3</v>
       </c>
       <c r="D205" s="1">
-        <v>0</v>
+        <v>3.248E-3</v>
       </c>
       <c r="E205" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F205" s="1" t="e">
+        <v>5.3641276084746533E-3</v>
+      </c>
+      <c r="F205" s="1">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.65039883683108501</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
@@ -7201,18 +7201,18 @@
         <v>204</v>
       </c>
       <c r="C206" s="1">
-        <v>0</v>
+        <v>-3.7239999999999999E-3</v>
       </c>
       <c r="D206" s="1">
-        <v>0</v>
+        <v>-2.7620000000000001E-3</v>
       </c>
       <c r="E206" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F206" s="1" t="e">
+        <v>4.6364663268484976E-3</v>
+      </c>
+      <c r="F206" s="1">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>-2.5034404714382599</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
@@ -7220,18 +7220,18 @@
         <v>205</v>
       </c>
       <c r="C207" s="1">
-        <v>0</v>
+        <v>3.0019999999999999E-3</v>
       </c>
       <c r="D207" s="1">
-        <v>0</v>
+        <v>2.1700000000000001E-3</v>
       </c>
       <c r="E207" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F207" s="1" t="e">
+        <v>3.704173862010259E-3</v>
+      </c>
+      <c r="F207" s="1">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.62589843418012825</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
@@ -7239,18 +7239,18 @@
         <v>206</v>
       </c>
       <c r="C208" s="1">
-        <v>0</v>
+        <v>-2.1229999999999999E-3</v>
       </c>
       <c r="D208" s="1">
-        <v>0</v>
+        <v>-1.495E-3</v>
       </c>
       <c r="E208" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F208" s="1" t="e">
+        <v>2.5965658089099146E-3</v>
+      </c>
+      <c r="F208" s="1">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>-2.528058682698576</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
@@ -7258,18 +7258,18 @@
         <v>207</v>
       </c>
       <c r="C209" s="1">
-        <v>0</v>
+        <v>1.111E-3</v>
       </c>
       <c r="D209" s="1">
-        <v>0</v>
+        <v>7.6199999999999998E-4</v>
       </c>
       <c r="E209" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F209" s="1" t="e">
+        <v>1.3472063687497917E-3</v>
+      </c>
+      <c r="F209" s="1">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.60117869913906552</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
@@ -7296,18 +7296,18 @@
         <v>209</v>
       </c>
       <c r="C211" s="1">
-        <v>0</v>
+        <v>-1.1709999999999999E-3</v>
       </c>
       <c r="D211" s="1">
-        <v>0</v>
+        <v>-7.6199999999999998E-4</v>
       </c>
       <c r="E211" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F211" s="1" t="e">
+        <v>1.3970987796143835E-3</v>
+      </c>
+      <c r="F211" s="1">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>-2.5647073208181661</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
@@ -7315,18 +7315,18 @@
         <v>210</v>
       </c>
       <c r="C212" s="1">
-        <v>0</v>
+        <v>2.3609999999999998E-3</v>
       </c>
       <c r="D212" s="1">
-        <v>0</v>
+        <v>1.495E-3</v>
       </c>
       <c r="E212" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F212" s="1" t="e">
+        <v>2.7945207102471076E-3</v>
+      </c>
+      <c r="F212" s="1">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.5644786998607203</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
@@ -7334,18 +7334,18 @@
         <v>211</v>
       </c>
       <c r="C213" s="1">
-        <v>0</v>
+        <v>-3.522E-3</v>
       </c>
       <c r="D213" s="1">
-        <v>0</v>
+        <v>-2.1700000000000001E-3</v>
       </c>
       <c r="E213" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F213" s="1" t="e">
+        <v>4.1368326047835201E-3</v>
+      </c>
+      <c r="F213" s="1">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>-2.5893992363747369</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
@@ -7353,18 +7353,18 @@
         <v>212</v>
       </c>
       <c r="C214" s="1">
-        <v>0</v>
+        <v>4.6080000000000001E-3</v>
       </c>
       <c r="D214" s="1">
-        <v>0</v>
+        <v>2.7620000000000001E-3</v>
       </c>
       <c r="E214" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F214" s="1" t="e">
+        <v>5.3723652146889641E-3</v>
+      </c>
+      <c r="F214" s="1">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.53997258719301533</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
@@ -7372,18 +7372,18 @@
         <v>213</v>
       </c>
       <c r="C215" s="1">
-        <v>0</v>
+        <v>-5.5729999999999998E-3</v>
       </c>
       <c r="D215" s="1">
-        <v>0</v>
+        <v>-3.248E-3</v>
       </c>
       <c r="E215" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F215" s="1" t="e">
+        <v>6.4504133976048391E-3</v>
+      </c>
+      <c r="F215" s="1">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>-2.6139087778347307</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
@@ -7391,18 +7391,18 @@
         <v>214</v>
       </c>
       <c r="C216" s="1">
-        <v>0</v>
+        <v>6.3709999999999999E-3</v>
       </c>
       <c r="D216" s="1">
-        <v>0</v>
+        <v>3.6089999999999998E-3</v>
       </c>
       <c r="E216" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F216" s="1" t="e">
+        <v>7.3221937969436459E-3</v>
+      </c>
+      <c r="F216" s="1">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.51540246294019909</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
@@ -7410,18 +7410,18 @@
         <v>215</v>
       </c>
       <c r="C217" s="1">
-        <v>0</v>
+        <v>-6.9610000000000002E-3</v>
       </c>
       <c r="D217" s="1">
-        <v>0</v>
+        <v>-3.8310000000000002E-3</v>
       </c>
       <c r="E217" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F217" s="1" t="e">
+        <v>7.9455699606762013E-3</v>
+      </c>
+      <c r="F217" s="1">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>-2.6384792633024903</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
@@ -7429,18 +7429,18 @@
         <v>216</v>
       </c>
       <c r="C218" s="1">
-        <v>0</v>
+        <v>7.3080000000000003E-3</v>
       </c>
       <c r="D218" s="1">
-        <v>0</v>
+        <v>3.9060000000000002E-3</v>
       </c>
       <c r="E218" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F218" s="1" t="e">
+        <v>8.2863562559185207E-3</v>
+      </c>
+      <c r="F218" s="1">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.49085178039801919</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
@@ -7448,18 +7448,18 @@
         <v>217</v>
       </c>
       <c r="C219" s="1">
-        <v>0</v>
+        <v>-7.3839999999999999E-3</v>
       </c>
       <c r="D219" s="1">
-        <v>0</v>
+        <v>-3.8310000000000002E-3</v>
       </c>
       <c r="E219" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F219" s="1" t="e">
+        <v>8.3186547590340595E-3</v>
+      </c>
+      <c r="F219" s="1">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>-2.6629991174024066</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
@@ -7467,18 +7467,18 @@
         <v>218</v>
       </c>
       <c r="C220" s="1">
-        <v>0</v>
+        <v>7.1700000000000002E-3</v>
       </c>
       <c r="D220" s="1">
-        <v>0</v>
+        <v>3.6089999999999998E-3</v>
       </c>
       <c r="E220" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F220" s="1" t="e">
+        <v>8.0270655285726925E-3</v>
+      </c>
+      <c r="F220" s="1">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.46632184631626777</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
@@ -7486,18 +7486,18 @@
         <v>219</v>
       </c>
       <c r="C221" s="1">
-        <v>0</v>
+        <v>-6.6550000000000003E-3</v>
       </c>
       <c r="D221" s="1">
-        <v>0</v>
+        <v>-3.248E-3</v>
       </c>
       <c r="E221" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F221" s="1" t="e">
+        <v>7.4053041125938914E-3</v>
+      </c>
+      <c r="F221" s="1">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>-2.6875473584635539</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
@@ -7505,18 +7505,18 @@
         <v>220</v>
       </c>
       <c r="C222" s="1">
-        <v>0</v>
+        <v>5.8399999999999997E-3</v>
       </c>
       <c r="D222" s="1">
-        <v>0</v>
+        <v>2.7620000000000001E-3</v>
       </c>
       <c r="E222" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F222" s="1" t="e">
+        <v>6.4602046407215303E-3</v>
+      </c>
+      <c r="F222" s="1">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.44177047391523144</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
@@ -7524,18 +7524,18 @@
         <v>221</v>
       </c>
       <c r="C223" s="1">
-        <v>0</v>
+        <v>-4.738E-3</v>
       </c>
       <c r="D223" s="1">
-        <v>0</v>
+        <v>-2.1700000000000001E-3</v>
       </c>
       <c r="E223" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F223" s="1" t="e">
+        <v>5.2112900514172111E-3</v>
+      </c>
+      <c r="F223" s="1">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>-2.7121065734074516</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
@@ -7543,18 +7543,18 @@
         <v>222</v>
       </c>
       <c r="C224" s="1">
-        <v>0</v>
+        <v>3.372E-3</v>
       </c>
       <c r="D224" s="1">
-        <v>0</v>
+        <v>1.495E-3</v>
       </c>
       <c r="E224" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F224" s="1" t="e">
+        <v>3.6885510705424699E-3</v>
+      </c>
+      <c r="F224" s="1">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.41731593960667063</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
@@ -7562,18 +7562,18 @@
         <v>223</v>
       </c>
       <c r="C225" s="1">
-        <v>0</v>
+        <v>-1.7780000000000001E-3</v>
       </c>
       <c r="D225" s="1">
-        <v>0</v>
+        <v>-7.6199999999999998E-4</v>
       </c>
       <c r="E225" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F225" s="1" t="e">
+        <v>1.9344063688894327E-3</v>
+      </c>
+      <c r="F225" s="1">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>-2.7367008673047097</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
@@ -7600,18 +7600,18 @@
         <v>225</v>
       </c>
       <c r="C227" s="1">
-        <v>0</v>
+        <v>1.9059999999999999E-3</v>
       </c>
       <c r="D227" s="1">
-        <v>0</v>
+        <v>7.6199999999999998E-4</v>
       </c>
       <c r="E227" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F227" s="1" t="e">
+        <v>2.052676301806985E-3</v>
+      </c>
+      <c r="F227" s="1">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.38032544713424149</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
@@ -7619,18 +7619,18 @@
         <v>226</v>
       </c>
       <c r="C228" s="1">
-        <v>0</v>
+        <v>-3.875E-3</v>
       </c>
       <c r="D228" s="1">
-        <v>0</v>
+        <v>-1.495E-3</v>
       </c>
       <c r="E228" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F228" s="1" t="e">
+        <v>4.1533901815264118E-3</v>
+      </c>
+      <c r="F228" s="1">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>-2.7733816550613617</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
@@ -7638,18 +7638,18 @@
         <v>227</v>
       </c>
       <c r="C229" s="1">
-        <v>0</v>
+        <v>5.8380000000000003E-3</v>
       </c>
       <c r="D229" s="1">
-        <v>0</v>
+        <v>2.1700000000000001E-3</v>
       </c>
       <c r="E229" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F229" s="1" t="e">
+        <v>6.2282536878325691E-3</v>
+      </c>
+      <c r="F229" s="1">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.3558767030799696</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
@@ -7657,18 +7657,18 @@
         <v>228</v>
       </c>
       <c r="C230" s="1">
-        <v>0</v>
+        <v>-7.7200000000000003E-3</v>
       </c>
       <c r="D230" s="1">
-        <v>0</v>
+        <v>-2.7620000000000001E-3</v>
       </c>
       <c r="E230" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F230" s="1" t="e">
+        <v>8.199209961941456E-3</v>
+      </c>
+      <c r="F230" s="1">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>-2.7980108331711779</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
@@ -7676,18 +7676,18 @@
         <v>229</v>
       </c>
       <c r="C231" s="1">
-        <v>0</v>
+        <v>9.4409999999999997E-3</v>
       </c>
       <c r="D231" s="1">
-        <v>0</v>
+        <v>3.248E-3</v>
       </c>
       <c r="E231" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F231" s="1" t="e">
+        <v>9.9840865881661908E-3</v>
+      </c>
+      <c r="F231" s="1">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.33134767508859353</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
@@ -7695,18 +7695,18 @@
         <v>230</v>
       </c>
       <c r="C232" s="1">
-        <v>0</v>
+        <v>-1.0924E-2</v>
       </c>
       <c r="D232" s="1">
-        <v>0</v>
+        <v>-3.6089999999999998E-3</v>
       </c>
       <c r="E232" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F232" s="1" t="e">
+        <v>1.1504723247431899E-2</v>
+      </c>
+      <c r="F232" s="1">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>-2.8225083197519836</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
@@ -7714,18 +7714,18 @@
         <v>231</v>
       </c>
       <c r="C233" s="1">
-        <v>0</v>
+        <v>1.2093E-2</v>
       </c>
       <c r="D233" s="1">
-        <v>0</v>
+        <v>3.8310000000000002E-3</v>
       </c>
       <c r="E233" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F233" s="1" t="e">
+        <v>1.2685314737916438E-2</v>
+      </c>
+      <c r="F233" s="1">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.30679280689002375</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
@@ -7733,18 +7733,18 @@
         <v>232</v>
       </c>
       <c r="C234" s="1">
-        <v>0</v>
+        <v>-1.2877E-2</v>
       </c>
       <c r="D234" s="1">
-        <v>0</v>
+        <v>-3.9060000000000002E-3</v>
       </c>
       <c r="E234" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F234" s="1" t="e">
+        <v>1.3456372653876674E-2</v>
+      </c>
+      <c r="F234" s="1">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>-2.8470822270111666</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
@@ -7752,18 +7752,18 @@
         <v>233</v>
       </c>
       <c r="C235" s="1">
-        <v>0</v>
+        <v>1.3211000000000001E-2</v>
       </c>
       <c r="D235" s="1">
-        <v>0</v>
+        <v>3.8310000000000002E-3</v>
       </c>
       <c r="E235" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F235" s="1" t="e">
+        <v>1.3755256522508041E-2</v>
+      </c>
+      <c r="F235" s="1">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.28224415566864014</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
@@ -7771,18 +7771,18 @@
         <v>234</v>
       </c>
       <c r="C236" s="1">
-        <v>0</v>
+        <v>-1.3041000000000001E-2</v>
       </c>
       <c r="D236" s="1">
-        <v>0</v>
+        <v>-3.6089999999999998E-3</v>
       </c>
       <c r="E236" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F236" s="1" t="e">
+        <v>1.3531170015929886E-2</v>
+      </c>
+      <c r="F236" s="1">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>-2.8716071017767808</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
@@ -7790,18 +7790,18 @@
         <v>235</v>
       </c>
       <c r="C237" s="1">
-        <v>0</v>
+        <v>1.2323000000000001E-2</v>
       </c>
       <c r="D237" s="1">
-        <v>0</v>
+        <v>3.248E-3</v>
       </c>
       <c r="E237" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F237" s="1" t="e">
+        <v>1.2743854715116616E-2</v>
+      </c>
+      <c r="F237" s="1">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.25771113072871438</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
@@ -7809,18 +7809,18 @@
         <v>236</v>
       </c>
       <c r="C238" s="1">
-        <v>0</v>
+        <v>-1.1027E-2</v>
       </c>
       <c r="D238" s="1">
-        <v>0</v>
+        <v>-2.7620000000000001E-3</v>
       </c>
       <c r="E238" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F238" s="1" t="e">
+        <v>1.1367645886462158E-2</v>
+      </c>
+      <c r="F238" s="1">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>-2.8961659427011459</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.2">
@@ -7828,18 +7828,18 @@
         <v>237</v>
       </c>
       <c r="C239" s="1">
-        <v>0</v>
+        <v>9.1380000000000003E-3</v>
       </c>
       <c r="D239" s="1">
-        <v>0</v>
+        <v>2.1700000000000001E-3</v>
       </c>
       <c r="E239" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F239" s="1" t="e">
+        <v>9.392121379113454E-3</v>
+      </c>
+      <c r="F239" s="1">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.23315131320072366</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.2">
@@ -7847,18 +7847,18 @@
         <v>238</v>
       </c>
       <c r="C240" s="1">
-        <v>0</v>
+        <v>-6.6569999999999997E-3</v>
       </c>
       <c r="D240" s="1">
-        <v>0</v>
+        <v>-1.495E-3</v>
       </c>
       <c r="E240" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F240" s="1" t="e">
+        <v>6.8228054347167187E-3</v>
+      </c>
+      <c r="F240" s="1">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>-2.9206821649619639</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.2">
@@ -7866,18 +7866,18 @@
         <v>239</v>
       </c>
       <c r="C241" s="1">
-        <v>0</v>
+        <v>3.5999999999999999E-3</v>
       </c>
       <c r="D241" s="1">
-        <v>0</v>
+        <v>7.6199999999999998E-4</v>
       </c>
       <c r="E241" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F241" s="1" t="e">
+        <v>3.6797614053087732E-3</v>
+      </c>
+      <c r="F241" s="1">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.20858792905826865</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.2">
@@ -7904,18 +7904,18 @@
         <v>241</v>
       </c>
       <c r="C243" s="1">
-        <v>0</v>
+        <v>-4.0930000000000003E-3</v>
       </c>
       <c r="D243" s="1">
-        <v>0</v>
+        <v>-7.6199999999999998E-4</v>
       </c>
       <c r="E243" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F243" s="1" t="e">
+        <v>4.1633271550527958E-3</v>
+      </c>
+      <c r="F243" s="1">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>-2.9575283809956536</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.2">
@@ -7923,18 +7923,18 @@
         <v>242</v>
       </c>
       <c r="C244" s="1">
-        <v>0</v>
+        <v>8.6149999999999994E-3</v>
       </c>
       <c r="D244" s="1">
-        <v>0</v>
+        <v>1.495E-3</v>
       </c>
       <c r="E244" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F244" s="1" t="e">
+        <v>8.7437549142230647E-3</v>
+      </c>
+      <c r="F244" s="1">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.17182339261663149</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.2">
@@ -7942,18 +7942,18 @@
         <v>243</v>
       </c>
       <c r="C245" s="1">
-        <v>0</v>
+        <v>-1.3488E-2</v>
       </c>
       <c r="D245" s="1">
-        <v>0</v>
+        <v>-2.1700000000000001E-3</v>
       </c>
       <c r="E245" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F245" s="1" t="e">
+        <v>1.3661443701161308E-2</v>
+      </c>
+      <c r="F245" s="1">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>-2.9820758211296998</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.2">
@@ -7961,18 +7961,18 @@
         <v>244</v>
       </c>
       <c r="C246" s="1">
-        <v>0</v>
+        <v>1.8620999999999999E-2</v>
       </c>
       <c r="D246" s="1">
-        <v>0</v>
+        <v>2.7620000000000001E-3</v>
       </c>
       <c r="E246" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F246" s="1" t="e">
+        <v>1.8824725363202514E-2</v>
+      </c>
+      <c r="F246" s="1">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.14725351570695991</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.2">
@@ -7980,18 +7980,18 @@
         <v>245</v>
       </c>
       <c r="C247" s="1">
-        <v>0</v>
+        <v>-2.3914999999999999E-2</v>
       </c>
       <c r="D247" s="1">
-        <v>0</v>
+        <v>-3.248E-3</v>
       </c>
       <c r="E247" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F247" s="1" t="e">
+        <v>2.413455466753012E-2</v>
+      </c>
+      <c r="F247" s="1">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>-3.0066042454336133</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.2">
@@ -7999,18 +7999,18 @@
         <v>246</v>
       </c>
       <c r="C248" s="1">
-        <v>0</v>
+        <v>2.9260000000000001E-2</v>
       </c>
       <c r="D248" s="1">
-        <v>0</v>
+        <v>3.6089999999999998E-3</v>
       </c>
       <c r="E248" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F248" s="1" t="e">
+        <v>2.9481731309405831E-2</v>
+      </c>
+      <c r="F248" s="1">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.12272261082110131</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.2">
@@ -8018,18 +8018,18 @@
         <v>247</v>
       </c>
       <c r="C249" s="1">
-        <v>0</v>
+        <v>-3.4548000000000002E-2</v>
       </c>
       <c r="D249" s="1">
-        <v>0</v>
+        <v>-3.8310000000000002E-3</v>
       </c>
       <c r="E249" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F249" s="1" t="e">
+        <v>3.4759759277072103E-2</v>
+      </c>
+      <c r="F249" s="1">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>-3.0311546449627813</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.2">
@@ -8037,18 +8037,18 @@
         <v>248</v>
       </c>
       <c r="C250" s="1">
-        <v>0</v>
+        <v>3.9660000000000001E-2</v>
       </c>
       <c r="D250" s="1">
-        <v>0</v>
+        <v>3.9060000000000002E-3</v>
       </c>
       <c r="E250" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F250" s="1" t="e">
+        <v>3.9851881210301733E-2</v>
+      </c>
+      <c r="F250" s="1">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>9.8170548714597017E-2</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.2">
@@ -8056,18 +8056,18 @@
         <v>249</v>
       </c>
       <c r="C251" s="1">
-        <v>0</v>
+        <v>-4.4490000000000002E-2</v>
       </c>
       <c r="D251" s="1">
-        <v>0</v>
+        <v>-3.8310000000000002E-3</v>
       </c>
       <c r="E251" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F251" s="1" t="e">
+        <v>4.4654637620296506E-2</v>
+      </c>
+      <c r="F251" s="1">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>-3.0556953013179573</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.2">
@@ -8075,18 +8075,18 @@
         <v>250</v>
       </c>
       <c r="C252" s="1">
-        <v>0</v>
+        <v>4.8924000000000002E-2</v>
       </c>
       <c r="D252" s="1">
-        <v>0</v>
+        <v>3.6080000000000001E-3</v>
       </c>
       <c r="E252" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F252" s="1" t="e">
+        <v>4.9056859255357965E-2</v>
+      </c>
+      <c r="F252" s="1">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>7.3613776632370037E-2</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.2">
@@ -8094,18 +8094,18 @@
         <v>251</v>
       </c>
       <c r="C253" s="1">
-        <v>0</v>
+        <v>-5.2868999999999999E-2</v>
       </c>
       <c r="D253" s="1">
-        <v>0</v>
+        <v>-3.2469999999999999E-3</v>
       </c>
       <c r="E253" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F253" s="1" t="e">
+        <v>5.2968614952630201E-2</v>
+      </c>
+      <c r="F253" s="1">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>-3.080253745335146</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.2">
@@ -8113,18 +8113,18 @@
         <v>252</v>
       </c>
       <c r="C254" s="1">
-        <v>0.5</v>
+        <v>0.55622400000000005</v>
       </c>
       <c r="D254" s="1">
-        <v>0</v>
+        <v>2.7560000000000002E-3</v>
       </c>
       <c r="E254" s="1">
         <f t="shared" si="6"/>
-        <v>0.5</v>
+        <v>0.55623082772532484</v>
       </c>
       <c r="F254" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>4.9547977913160677E-3</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.2">
@@ -8132,18 +8132,18 @@
         <v>253</v>
       </c>
       <c r="C255" s="1">
-        <v>0</v>
+        <v>-5.892E-2</v>
       </c>
       <c r="D255" s="1">
-        <v>0</v>
+        <v>-2.1689999999999999E-3</v>
       </c>
       <c r="E255" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F255" s="1" t="e">
+        <v>5.8959909777746435E-2</v>
+      </c>
+      <c r="F255" s="1">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>-3.1047966419073796</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.2">
@@ -8151,18 +8151,18 @@
         <v>254</v>
       </c>
       <c r="C256" s="1">
-        <v>0</v>
+        <v>6.0893999999999997E-2</v>
       </c>
       <c r="D256" s="1">
-        <v>0</v>
+        <v>1.4940000000000001E-3</v>
       </c>
       <c r="E256" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F256" s="1" t="e">
+        <v>6.0912324467220912E-2</v>
+      </c>
+      <c r="F256" s="1">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>2.452951592600457E-2</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.2">
@@ -8170,18 +8170,18 @@
         <v>255</v>
       </c>
       <c r="C257" s="1">
-        <v>0</v>
+        <v>-6.2095999999999998E-2</v>
       </c>
       <c r="D257" s="1">
-        <v>0</v>
+        <v>-7.6099999999999996E-4</v>
       </c>
       <c r="E257" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F257" s="1" t="e">
+        <v>6.2100662935269862E-2</v>
+      </c>
+      <c r="F257" s="1">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>-3.1293380493456477</v>
       </c>
     </row>
   </sheetData>
